--- a/1.TestCase[SW]/TestCase[ST16_CGO3Pro].xlsx
+++ b/1.TestCase[SW]/TestCase[ST16_CGO3Pro].xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="19200" yWindow="615" windowWidth="19200" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="测试分类" sheetId="6" r:id="rId1"/>
+    <sheet name="测试状态" sheetId="6" r:id="rId1"/>
     <sheet name="版本信息" sheetId="5" r:id="rId2"/>
     <sheet name="变更历史" sheetId="13" r:id="rId3"/>
     <sheet name="LED说明" sheetId="12" r:id="rId4"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Issue汇总!$A$1:$E$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">测试用例!$A$1:$L$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">测试用例!$A$1:$L$188</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,6 +28,287 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Queue:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试用例已经指定给某个测试人，不准备在这一测试阶段执行。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In Progress:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>该测试正在进行且会持续一段时间。若测试时间少于一天时标记该测试为进行中则便于每天跟踪测试用例状态。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Block:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一些因素导致测试不能进行到底，陷入阻塞状态，例如某个功能欠缺或者测试环境的某个部分欠缺。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Skip:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当决定在当前测试阶段跳过某个测试，可能因为它的优先权相对较低。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pass:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试运行结束，测试人得到了预料中的测试结果状态和测试行为。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Failed:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在很多情况下，测试人得到预料之外的结果、状态或行为，这些结果与测试目标相差甚远。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Warned:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试人得到预料之外的结果、状态或行为，但这些结果与测试目标差别不是很大，当前的错误是无关紧要的，或者对正在测试的特征是没有意义的。只和延期的或不是一定要改的错误相关的测试可以标记为警告，而不是失败。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -110,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="722">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,28 +405,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手动/室内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动到DNX mode：
-1.关闭遥控器开关，按住耳机孔内按钮并同时打开遥控器开关，检查遥控器启动状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,36 +431,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.遥控器系统为N-1版本，
-3. Internal Storage/SD Card 内没有可用的N版本一键升级包可用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开关机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.系统处于开机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.系统处于关机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器启动到DNX mode，屏幕显示“Entering DNX mode，Waiting for fastboot command” 信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.遥控器每次都可成功启动到刷机模式DNX mode。
-1-2.遥控器刷机每次都可完成且成功启动，版本信息无误。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,10 +451,6 @@
   </si>
   <si>
     <t>遥控器_开关机_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开遥控器上Power Key，检查遥控器状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,15 +470,6 @@
     </r>
   </si>
   <si>
-    <t>1.打开遥控器上Power Key，检查遥控器状态。
-2.重复Step1 100次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.遥控器每次都可以开机成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>遥控器_开关机_003</t>
     </r>
@@ -280,22 +502,10 @@
     </r>
   </si>
   <si>
-    <t>2.遥控器每次都正常关机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关闭遥控器上Power Key，检查遥控器状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_充电_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 反复插拔USB 线 100 次，检查遥控器插拔后的充电状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,20 +518,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.手动切换Pad和FlightMode。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1.点击Pad 图标后，界面可切换至Pad OS homescreen；
-1-2.点击Home图标后，界面可切换至Flight Data Telemetry Screen。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.反复切换Pad和FlightMode 100 次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Pad和FlightMode 切换成功，没有任何错误产生。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,35 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.开机后点击Pad图标，
-2.打开Settings，检查Settings下面所有的设置功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开机后点击Pad图标，
-2.使用并检查Android OS 下所有Apps 的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.界面切换至Pad OS homescreen，
-2.Settings目录下所有的设置均可操作和执行，操作过程中没有任何Error产生。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.界面可切换至Pad OS homescreen，
-2.所有Apps都可以正常打开并使用，使用过程中没有任何Error产生。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关机状态下，保持USB线连接，系统处于Charging OS且正在充电中，
-２.打开遥控器开关，检查遥控器状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>２.遥控器系统可直接从Charging OS 启动到系统主界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FlightMode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +561,6 @@
     <t>遥控器_FlightMode_007</t>
   </si>
   <si>
-    <t>1.首次开机之后，查看“Flight Data Telemetry Screen” 界面显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_PAD_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,93 +569,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.刷机至测试版本且系统处于关机状态，
-3.不同厂商不同型号不同大小的FAT32 格式的SD Cards 数张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1.遥控器可正常开机；
-2-2.进入系统之后，SD Card挂载成功，在“Settings”--&gt;"Storage"下可查看SD Card 信息；
-2-3.通过File Manager APP 可查看SD Card 内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开机状态下插入已准备的SD Cards（不同厂商不同型号不同大小），
-2.检查已插入的SD Card的信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.在关机状态下插入准备的SD Cards（不同厂商不同型号不同大小），
-2.拨动遥控器开机，进入系统之后，检查已插入的SD Card 的信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1.SD Card 挂载成功，在“Settings”--&gt;"Storage"下可查看SD Card 信息；
-2-3.通过File Manager APP 可查看SD Card 内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.刷机至测试版本且系统开机成功,
-3.不同厂商不同型号不同大小的FAT32格式的SD Cards 数张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.“WARNING!!!”弹窗弹出，“Exiting Flight Data Telemetry Screen Will Disconnect You from Aircraft! Are You Sure You Want to Exit?”，
-2.弹窗关闭，界面返回“Flight Data Telemetry Screen”，
-3.弹窗关闭，界面跳转至“System Settings”界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.查看“System Settings”界面信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Bind、Other Settings、Hardware Monitor、Mode Select、Camera Select、About Controller 列于屏幕左侧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 遥控器绑定飞机后，返回“Flight Data Telemetry Screen”，查看飞机信息状态栏显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.双击"Flight Data Telemetry Screen"界面，查看界面状态；
-2.再次双击“Flight Data Telemetry Screen界面，查看界面状态。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手动/室内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.切换Measurement Unit Metric/Imperial，
-3.返回"Flight Data Telemetry Screen",查看距离、高度的计量单位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Metric、Imperial可以相互切换，
-3.距离、高度的计量单位与Other Settings下的设置单位对应。
-Metric：m
-Imperial：ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.切换Language Select.
-3.返回"Flight Data Telemetry Screen",查文字信息是否与设置的语言一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Flight mode 语言可以切换成功，
-3.语言显示与设置的语言一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.打开、关闭Advanced Mode，
-3.返回"Flight Data Telemetry Screen"。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -535,23 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.尝试点击遥控器下方的“UPDATE”，
-2.尝试点击飞机下方的“UPDATE”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.刷机至测试版本且系统开机成功，
-3.未绑定飞机、云台，
-4.没有可用的一键升级包。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开“System Settings”-&gt;"About Controller"-&gt;，
-2.点击UPDATE对遥控器系统进行一键升级，试图将系统升级至N版本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.测试遥控器一台(含标配电池)，
 2.刷机至测试版本且系统开机成功，
 3.绑定飞机、云台。</t>
@@ -568,15 +629,6 @@
 2.飞机和云台系统为N-1版本，
 3.遥控器与飞机、云台绑定，
 4.SD Card 一张（不包含N版本升级包）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.开机状态下，保持USB线连接，系统电池显示正在充电中，
-２.关闭遥控器开关，检查遥控器状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>２.遥控器系统可直接从安卓系统启动到Charging OS。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1647,20 +1699,6 @@
     <t>遥控器_充电_005</t>
   </si>
   <si>
-    <t>1.测试遥控器一台（含标配电池），
-2.USB连接线一根，
-3.各种充电连接设备（墙充充电头，PC USB Port等），
-4.遥控器关机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台（含标配电池），
-2.USB连接线一根，
-3.各种充电连接设备（墙充充电头，PC USB Port等），
-4.遥控器开机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_充电_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1704,12 +1742,6 @@
     <t>1.点击后，飞机发出四声连续、短促的Beep声，尾灯开始红、绿慢闪，随后尾部LED红绿快闪，并伴随开始校准的电机提示声，机臂马达灯开始闪烁；
 2.按照马达灯闪烁的机臂翻转Typhoon H,每个方向通过后，飞机下一个需要校准的方向所对应机臂电机灯会自动闪烁；
 3.校准通过后LED灯绿色长亮，电机发出校准通过声，随后整机自动重启。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台（含标配电池），Typhoon H 一架（含标配电池），云台一部C-GO3+，
-2.刷机至测试版本且系统开机成功，
-3.遥控器、飞机都有足够的GPS。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1964,28 +1996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.打开刷机工具Manufacturing FlashTool 6.0.43.a，根据工具指导配置好环境。
-2.选中需测试的软件版本，将遥控器和PC通过USB连接，检查刷机状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.将遥控器通过USB 线与充电设备连接，
-2.观察遥控器状态,记录充电完成时间，
-3.检查遥控器电池电压值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.刷机至测试版本且系统开机成功，
-3.遥控器成功绑定了飞机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击“Bind”，
-2.飞机上电，向前晃动飞机两次，点击Reflash，Model列可获取飞机信息后，选中接收机编码，点击Bind。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.拨动云台PAN模式开关至最上，云台PAN为Follow模式，左右拨动飞机副翼摇杆，左右转动机身；
 2.拨动云台PAN模式开关至中间，云台PAN为Follow可控模式，左右拨动飞机副翼摇杆，左右转动机身；
 3.拨动云台PAN模式开关至最下端，云台PAN为全向模式，左右拨动飞机副翼摇杆，左右转动机身。</t>
@@ -2134,37 +2144,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Typhoon H - ST-16遥控器测试用例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST16 版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Typhoon H 版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimbal        Version: 
-AutoPilot     Version: 
-IPS              Version: 
-Camera       Version: V3.1.37(E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试版本信息
 Testing Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Comments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击屏幕下方“System Settings”，
-2."WARNING!!!"弹窗下点击“Cancel”键，
-3."WARNING!!!"弹窗下点击“OK”键。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2212,30 +2197,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gimbal        Version: V1.22
-AutoPilot     Version: V1.15
-IPS              Version: V0.0
-Camera       Version: V3.1.37(E)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.关闭遥控器上Power Key，检查遥控器状态。
-2. 重复Step1 100 次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.打开"System Settings"-&gt;"Camera Select",
 2.选择支持的Camera后，点击Select。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System       Version: st16_system_v03.01.b19
-Transmitter Version: st16_tx_v00.18
-Radio          Version: st16_rf_v01.08
-FightMode  Version: st16_app_v01.00.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2274,13 +2240,6 @@
   <si>
     <t>1.云台未插入SD Card。
 2.打开“System Settings”-&gt;"About Controller"-&gt;，点击飞行器下的UPDATE对飞行器系统进行一键升级，将飞行器升级至N版本。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System       Version: st16_system_v03.01.b19
-Transmitter Version: st16_tx_v00.18
-Radio          Version: st16_rf_v01.08
-FightMode  Version: st16_app_v01.00.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2316,9 +2275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.开始刷机直至进度完成功，没有错误信息产生，完成后遥控器自动重启进入系统，且版本信息完全正确。</t>
-  </si>
-  <si>
     <t>1.遥控器、云台测试设备各一部，且刷至需测试的软件版本，
 2.遥控器与云台绑定成功，
 3.云台内没有SD Card。</t>
@@ -2398,248 +2354,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.分别执行测试用例遥控器_刷机_001和遥控器_刷机_002各10 次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当User将电源键打开后，电源指示灯亮起， 遥控器先出现"YUNEEC"logo图标，并伴有短促的"Bi"一声响，之后成功启动到系统界面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. 当User将电源键关闭时，电源指示灯灭掉，之后遥控器系统屏幕出现"Power off"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>info， 之后屏幕灭掉，关机成功。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器屏幕先出现YUNEEC标志，之后出现电池充电动态图标(启动到Charging OS)，
-2.充电完成后，启动到系统,电池图标应显示满电状态；
-3.充电完成后，如果用万用表测量，电池电压值~4.1V。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-1.当USB线拔出时，遥控器停止充电，退出Charging OS；
-1-2.当USB线连接时，遥控器继续充电，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先出现"YUNEEC" logo图标, 再</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>启动到Charging OS。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.遥控器右上角电池图标显示充电状态，
-2.充电完成后，启动到系统,电池图标应显示满电状态；
-3.充电完成后，如果用万用表测量，电池电压值~4.1V。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-1.当USB线拔出时，遥控器停止充电，充电图标消失，"Settings"-&gt;"Battery"下显示"Discharging"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息；
-1-2.当USB 线连接时，遥控器继续充电，右上角电池图标显示充电状态。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-1.Pad、System Settings、Channel Settings、Model Select 四个项目横列在屏幕下方；
-1-2.由于未绑定飞机和Camera，所有参数均为N/A状态；
-1-3.未选中Model时，屏幕左上角有"No Model"或"无模型" 信息提示；
-1-4.屏幕右上角显示系统时间以及遥控器电池电量；
-1-5.当遥控器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选中Model后但</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未绑定Camera时，屏幕上方显示"Reconnecting to camera,please wait……"信息。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.双击后，上下左右状态栏及信息栏全部隐藏，仅右上角显示Camera SD卡储量信息，相机预览界面最大化，
-2.再次双击后，上下左右状态栏和信息栏出现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1-1.当未选择Model 时，会提示用户先到“Model Select”下选择Model；
-1-2.当已选择Model后，Aircraft 信息和“Refresh、Reset、Bind”key显示于屏幕右侧。
-2-1.向前晃动两次Typhoon H后，机身三色LED灯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(机尾LED灯)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黄色快闪，遥控器绑定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Aircraft Model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后，点击返回键飞机发出哔哔长叫，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机身三色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LED灯显示对应的模式（Smart绿色，Angle紫色，Home红色）；
-2-2.飞机和遥控器绑定成功；
-2-3.Aircraft Model栏下面的"NOT CONNECTED"信息消失。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.遥控器与飞机绑定成功之后，左侧飞机状态栏显示飞机电池电量，GPS信息显示"Acquiring"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，电机未启动，点击状态栏状态显示为“Ready”。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.提示绑定成功之后，Aircraft Camera栏下面的"Not connected"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>消失，并能显示云台回传画面。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1.Advanced mode 关闭，Channel Settings 呈灰色，点击会有信息提示用户打开Advanced mode。
-3-2.Advanced mode 打开，Channel Settings可操作并使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_FlightMode_008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 打开"System Settings"-&gt;"Bind"，Camera列可获取云台信息后，选中云台WIFI-SSID，点击Bind，输入1234567890，点击OK，提示绑定成功后，返回"Flight Data Telemetry Screen "。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Bind"，Bind Camera WIFI后，分别单击Refresh、Reset、Bind按钮，检查界面状态信息变化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.单击Refresh后Model及Camera列表发生增减变化；单击Reset后Camera连接信息变为"Not connected"；选择一个云台WIFI-SSID单击Bind后需要重新输入密码1234567890才可Bind云台；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_FlightMode_009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2660,10 +2378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器_FlightMode_014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_FlightMode_015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2773,21 +2487,6 @@
   </si>
   <si>
     <t>遥控器_FlightMode_042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.测试遥控器一台(含标配电池)，
-2.刷机至测试版本且系统开机成功。      3.遥控器成功绑定了飞机。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.勾选"Realsense Module Installed",
-3.返回FlightMode主界面，观察界面状态信息变化；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1.当飞机未安装Realsense模块时30秒后FlihgtMode主界面将出现“未安装Realsense模块”提示信息；                                            3-2.当飞机已安装Realsense模块时30秒之后不会出现任何提示信息；   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2872,22 +2571,6 @@
         <charset val="134"/>
       </rPr>
       <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.警告弹窗弹出后，点击OK，"Upgrade package not find!"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息弹出，升级失败。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3652,27 +3335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-1.Trim 功能关闭，遥控器上的Trim键没有功能。
-3-2.Trim 功能打开，按下Trim键后，会伴有"Di"声音提示，当Trim(右)不为0时，返回Screen 主界面，可看到对应的坐标值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.打开、关闭Trim开关，
-3.返回"Flight Data Telemetry Screen"。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开"System Settings"-&gt;"Other Settings",
-2.打开Trim，
-3.分别操作Trim(左)、Trim(右)按键、任意拨动遥感(右)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1.操作Trim(左)上下按键时，可同向调节同EV值(EV-2.0 - EV2.0)；操作Trim(左)左右按键时，可上下调节白平衡(Lock、Sunny、Cloudy、Auto、Flourescent、Incandescent、Sunset/Sunrise)；                                                                                 3-2.操作Trim(右)上下按键时，可纵向调节Trim油门值(-60 - 60)；操作Trim(右)左右按键时，可横向调节Trim油门值(-60 - 60)；                                                                                        3-3.任意拨动遥感(右)时，Trim(左)按键将恢复默认值(EV值:EV0、白平衡:Auto)，Trim(右)按键也将恢复默认值(纵向:0、横向:0)；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3689,24 +3351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ST-16遥控器软件测试结果分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System       Version: st16_system_v03.01.b23
-Transmitter Version: st16_tx_v00.21
-Radio          Version: st16_rf_v01.10
-FightMode  Version: st16_app_v01.00.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gimbal        Version: V1.15
-AutoPilot     Version: V1.29
-IPS              Version: V0.0
-Camera       Version: V3.2.16(A)                                   RealSense   Version: V0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3719,35 +3363,692 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞机固件在线升级功能、相机设置功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加飞机固件在线升级及相机设置测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控器_FlightMode_029</t>
+  </si>
+  <si>
+    <t>飞机固件在线升级功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加飞机固件在线升级测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.6</t>
+  </si>
+  <si>
+    <t>相机设置功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器_FlightMode_030</t>
+  </si>
+  <si>
+    <t>2-1.扫描完成后，系统将弹出警告信息，提示本地无升级包，单击OK将进行在线更新；                                                                2-3.选择Available WiFi连接Internet进行在线更新（只要云台版本、飞控版本或相机版本之一存在新版即进行打包下载更新，否则不更新），无论是否更新遥控器均将重新Bind云台；</t>
+  </si>
+  <si>
+    <t>2-1.扫描完成后，系统将弹出警告信息，提示本地无升级包，单击OK将进行在线更新；                                                                2-2.选择Available WiFi连接Internet进行在线更新（只要云台版本、飞控版本或相机版本之一存在新版即进行大包下载更新，否则不更新），无论是否更新遥控器均将重新Bind云台；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测试遥控器一台(含标配电池)；                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.飞机系统为N-1版本；
+3.遥控器与飞机、云台绑定；                        4.SD Card 一张（不含N版本升级包）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.测试遥控器一台(含标配电池)，
 2.飞机和云台系统为N-1版本，
 3.遥控器与飞机、云台绑定，
-4.SD Card 一张（包含N版本升级包）。</t>
+4.SD Card 一张（包含N版本升级包）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器内不包含N版本的升级包；                                                              2.打开“System Settings”-&gt;"About Controller"-&gt;，点击ST16下的UPDATE对飞行器系统进行一键升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.云台插入SD Card但不包含N版本的升级包；                                                              2.打开“System Settings”-&gt;"About Controller"-&gt;，点击Typhoon H下的UPDATE对飞行器系统进行一键升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.尝试点击ST16下方的“UPDATE”，
+2.尝试点击Typhoon H下方的“UPDATE”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开“System Settings”-&gt;"About Controller"-&gt;，
+2.点击UPDATE对ST16系统进行一键升级，试图将系统升级至N版本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.警告弹窗"Local no updates, check update download is connected to the Internet!!!"信息弹出，单击OK进入在线升级窗口，单击Cancel退出升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器_FlightMode_022</t>
+  </si>
+  <si>
+    <t>3.警告弹窗"Local no updates, check update download is connected to the Internet!!!"信息弹出，单击OK进入在线升级窗口，单击Cancel退出升级。</t>
+  </si>
+  <si>
+    <t>1.打开“System Settings”-&gt;"About Controller"-&gt;，
+2.点击UPDATE对Typhoon H系统进行一键升级，试图将系统升级至N版本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.飞机系统为N-1版本；                     3.遥控器绑定飞机、云台；
+4.云台SD Card 内没有可用的N版本一键升级包；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.遥控器系统为N-1版本；
+3.遥控器Internal Storage/SD Card 内没有可用的N版本一键升级包；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；
+3.未绑定飞机、云台；
+4.没有可用的一键升级包；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST-16遥控器软件测试用例状态分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试阻塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试警告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skipped</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ST-16遥控器软件测试用例版本信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST16 版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typhoon H 版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System       Version: st16_system_v03.01.b19
+Transmitter Version: st16_tx_v00.18
+Radio          Version: st16_rf_v01.08
+FightMode  Version: st16_app_v01.00.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimbal        Version: 
+AutoPilot     Version: 
+IPS              Version: 
+Camera       Version: V3.1.37(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimbal        Version: V1.22
+AutoPilot     Version: V1.15
+IPS              Version: V0.0
+Camera       Version: V3.1.37(E)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System       Version: st16_system_v03.01.b19
+Transmitter Version: st16_tx_v00.18
+Radio          Version: st16_rf_v01.08
+FightMode  Version: st16_app_v01.00.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System       Version: st16_system_v03.01.b23
+Transmitter Version: st16_tx_v00.23
+Radio          Version: st16_rf_v01.10
+FightMode  Version: st16_app_v01.00.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System       Version: st16_system_v03.01.b23
+Transmitter Version: st16_tx_v00.22
+Radio          Version: st16_rf_v01.10
+FightMode  Version: st16_app_v01.00.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gimbal        Version: V1.22
+AutoPilot     Version: V1.26
+IPS              Version: V1.04
+Camera       Version: V3.2.16(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加云台相机设置功能测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动到DNX Mode：
+1.关闭遥控器开关，按住耳机孔内按钮并同时打开遥控器开关，检查遥控器启动状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器启动到DNX Mode，屏幕显示“Entering DNX mode，Waiting for fastboot command” 信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.需测试的软件版本；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开始刷机直至进度成功，没有错误信息产生，完成后遥控器自动重启进入系统，且版本信息完全正确；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器每次都可成功启动到刷机模式DNX Mode；                  2.遥控器刷机每次都可完成且成功启动，版本信息无误；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当User将电源键打开后，电源指示灯亮起， 遥控器先出现"YUNEEC"logo图标，并伴有短促的"Bi"一声响，之后成功启动到系统界面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开刷机工具Manufacturing FlashTool 6.0.43.a，根据工具指导配置好环境；
+2.选中需测试的软件版本，将遥控器和PC通过USB连接，检查刷机状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分别执行测试用例遥控器_刷机_001和遥控器_刷机_002各10 次；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.系统处于关机状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开遥控器上Power Key，检查遥控器状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开遥控器上Power Key，检查遥控器状态；
+2.重复Step1 100次；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关闭遥控器上Power Key，检查遥控器状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器每次都可以开机成功；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 当User将电源键关闭时，电源指示灯灭掉，之后遥控器系统屏幕出现"Power off"info， 之后屏幕灭掉，关机成功；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关闭遥控器上Power Key，检查遥控器状态；
+2. 重复Step1 100 次；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器每次都正常关机；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.测试遥控器一台(含标配电池)，
-2.飞机系统为N-1版本，
-3.遥控器与飞机绑定，                        4.SD Card 一张（不含N版本升级包）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.云台插入SD Card但不包含N版本的升级包；                                                              2.打开“System Settings”-&gt;"About Controller"-&gt;，点击飞行器下的UPDATE对飞行器系统进行一键升级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1.扫描完成后，系统将弹出警告信息，提示本地无升级包，单击OK将进行在线更新；                                                                2-2.选择Available WiFi连接Internet进行在线更新（只要云台版本、飞控版本或相机版本之一存在新版即进行更新，否则不更新）；</t>
+2.系统处于开机状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台（含标配电池）；
+2.USB连接线一根；
+3.各种充电连接设备（墙充充电头，PC USB Port等）；
+4.遥控器关机状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将遥控器通过USB 线与充电设备连接；
+2.观察遥控器状态,记录充电完成时间；
+3.检查遥控器电池电压值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器屏幕先出现YUNEEC标志，之后出现电池充电动态图标(启动到Charging OS)；
+2.充电完成后，启动到系统,电池图标应显示满电状态；
+3.充电完成后，如果用万用表测量，电池电压值约为4.1V；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将遥控器通过USB 线与充电设备连接；      2. 反复插拔USB 线 100 次，检查遥控器插拔后的充电状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.当USB线拔出时，遥控器停止充电，退出Charging OS；
+2.当USB线连接时，遥控器继续充电，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先出现"YUNEEC" Logo图标, 再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动到Charging OS；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关机状态下，保持USB线连接，系统处于Charging OS且正在充电中；
+２.打开遥控器开关，检查遥控器状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器系统可直接从Charging OS 启动到系统主界面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器右上角电池图标显示充电状态；
+2.充电完成后，启动到系统,电池图标应显示满电状态；
+3.充电完成后，如果用万用表测量，电池电压值约为4.1V；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台（含标配电池）；
+2.USB连接线一根；
+3.各种充电连接设备（墙充充电头，PC USB Port等）；
+4.遥控器开机状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当USB线拔出时，遥控器停止充电，充电图标消失，遥控器"Settings"-&gt;"Battery"下显示"Discharging"信息；
+2.当USB 线连接时，遥控器继续充电，右上角电池图标显示充电状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.将遥控器通过USB 线与充电设备连接；      2.反复插拔USB 线 100 次，检查遥控器插拔后的充电状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开机状态下，保持USB线连接，系统电池显示正在充电中；
+２.关闭遥控器开关，检查遥控器状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器系统可直接从安卓系统启动到Charging OS；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.手动切换Pad和FlightMode；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Pad 图标后，界面可切换至Pad OS homescreen；
+2.点击Home图标后，界面可切换至Flight Data Telemetry Screen；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Pad和FlightMode 切换成功，没有任何错误信息产生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开机后点击Pad图标；
+2.打开Settings，检查Settings下面所有的设置功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.界面切换至Pad OS homescreen；
+2.Settings目录下所有的设置均可操作和执行，操作过程中没有任何Error产生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开机后点击Pad图标；
+2.使用并检查Android OS 下所有Apps 的功能；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.界面可切换至Pad OS homescreen；
+2.所有Apps都可以正常打开并使用，使用过程中没有任何Error产生；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统处于关机状态；                                                 3.不同厂商不同型号不同大小的NTFS或FAT32 格式的SD Card数张；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在关机状态下插入准备的SD Card（不同厂商不同型号不同大小）；
+2.拨动遥控器开机，进入系统之后，检查已插入的SD Card 的信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器可正常开机；
+2.进入系统之后，SD Card挂载成功，在遥控器“Settings”-&gt;"Storage"下可查看SD Card信息；
+3.通过File Manager App可查看SD Card的内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；
+3.不同厂商不同型号不同大小的NTFS或FAT32格式的SD Card数张；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开机状态下插入已准备的SD Card（不同厂商不同型号不同大小），
+2.检查已插入的SD Card的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.SD Card挂载成功，在遥控器“Settings”-&gt;"Storage"下可查看SD Card信息；
+2.通过File Manager App可查看SD Card的内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首次开机之后，查看“Flight Data Telemetry Screen” 界面显示状态；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双击"Flight Data Telemetry Screen"界面，查看界面状态；
+2.再次双击“Flight Data Telemetry Screen界面“，查看界面状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双击后，上下左右状态栏及信息栏全部隐藏，仅右上角显示Camera SD卡储量信息，相机预览界面最大化；
+2.再次双击后，上下左右状态栏和信息栏恢复显示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；
+3.遥控器成功绑定了飞机；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击屏幕下方“System Settings”；
+2."WARNING!!!"弹窗下点击“Cancel”键；
+3."WARNING!!!"弹窗下点击“OK”键；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.“WARNING!!!”弹窗弹出“Exiting Flight Data Telemetry Screen Will Disconnect You from Aircraft! Are You Sure You Want to Exit?”警告信息；
+2.弹窗关闭，界面返回“Flight Data Telemetry Screen”；
+3.弹窗关闭，界面跳转至“System Settings”界面；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看“System Settings”界面信息；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Bind、Other Settings、Hardware Monitor、Mode Select、Camera Select、About Controller 列于屏幕左侧；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开“Bind”菜单；
+2.飞机上电，向前45度晃动飞机两次，点击Refresh，Model列可获取飞机信息后，选中接收机编码，点击Bind；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台（含标配电池），Typhoon H 一架（含标配电池），云台CGO3Pro一部；
+2.刷机至测试版本且系统开机成功；
+3.遥控器、飞机都有足够的GPS；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台（含标配电池）；Typhoon H 一架（含标配电池），云台CGO3Pro一部；
+2.刷机至测试版本且系统开机成功；
+3.遥控器、飞机都有足够的GPS；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 遥控器绑定飞机后，返回“Flight Data Telemetry Screen”，查看飞机信息状态栏显示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打开"System Settings"-&gt;"Bind"，Camera列可获取云台信息后，选中云台WIFI-SSID，点击Bind，输入1234567890，点击OK，提示绑定成功后，返回"Flight Data Telemetry Screen "；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开"System Settings"-&gt;"Bind"，Bind Camera WIFI后，分别单击Refresh、Reset、Bind按钮，检查界面状态信息变化；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池);
+2.刷机至测试版本且系统开机成功;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.Pad、System Settings、Channel Settings、Model Select 四个项目横列在屏幕下方；
+2.由于未绑定飞机和云台，屏幕左侧所有参数均为N/A状态；
+3.未选中Model时，屏幕左上角有"No Model"或"无模型" 信息提示；
+4.屏幕右上角显示系统时间、遥控器GPS强度、WiFi状态以及遥控器电池电量；
+5.当遥控器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选中Model后但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未绑定云台时，屏幕上方一直显示"Reconnecting to camera,please wait……"信息。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.当飞机未选择Model 时，会提示用户先到“Model Select”下选择Model；
+2.当飞机已选择Model后，“Bind”菜单下出现Aircraft 信息，同时“Refresh、Reset、Bind”按钮显示于屏幕右侧；
+3.向前45度晃动两次Typhoon H后，机身三色LED灯(机尾LED灯)黄色快闪，遥控器绑定Aircraft Model后，点击返回键飞机发出哔哔长叫，机身三色LED灯显示对应的模式（Smart绿色，Angle紫色，Home红色）；
+4.飞机和遥控器绑定成功；
+5.Aircraft Model栏下面的"Not connected"信息消失，同时显示云台对应Camera SSID值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器与飞机绑定成功之后，左侧飞机状态栏显示飞机电池电量，飞机高度，飞机距离等信息，GPS信息显示"Acquiring"，电机未启动时右侧飞机状态栏显示为“Ready”，右侧同时显示OBS壁障状态，SETTING CALIBRATION设置按钮，FOLLOW/WATCH自拍及跟随模式默认为NOT AVAILABLE，TASK/CAMERA切换按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.提示绑定成功之后，Aircraft Camera栏下面的"Not connected"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消失，同时显示云台对应Camera SSID值，返回“Flight Data Telemetry Screen”后显示云台回传画面；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单击Refresh后Model及Camera列表发生增减变化；单击Reset后Camera连接信息变为"Not connected"；选择一个云台WIFI-SSID单击Bind后需要重新输入密码1234567890才可Bind云台，同时显示云台对应Camera SSID值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开"System Settings"-&gt;"Other Settings";                                                  2.切换Measurement Unit为Metric/Imperial;
+3.返回"Flight Data Telemetry Screen",查看计量单位值;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Metric、Imperial可以相互切换；
+2.距离、高度的计量单位与Other Settings下的设置单位对应：
+Metric：m
+Imperial：ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开"System Settings"-&gt;"Other Settings"；
+2.切换Language Select；
+3.返回"Flight Data Telemetry Screen",查文字信息是否与设置的语言一致；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.FlightMode语言可以切换成功；
+2.语言显示与设置的语言一致；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开"System Settings"-&gt;"Other Settings"；
+2.打开、关闭Advanced Mode；
+3.返回"Flight Data Telemetry Screen"；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Advance Mode 关闭，Channel Settings呈灰色，单击时会有信息提示用户打开Advanced Mode；
+2.Advance Mode 打开，Channel Settings可操作并使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；    3.遥控器成功绑定了飞机；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开"System Settings"-&gt;"Other Settings"；
+2.勾选"Realsense Module Installed"；
+3.返回FlightMode主界面，观察界面状态信息变化；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.当飞机未安装Realsense模块时30秒后FlihgtMode主界面将出现“未安装Realsense模块”提示信息；                                            2.当飞机已安装RealSense模块时将一直不会出现任何涉及RealSense的提示信息；   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在"Flight Data Telemetry Screen"主界面；2.按下左右Trim物理按钮任意键；                  3.检查是否弹出Trim Function窗口；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按下左右Trim物理按钮任意键，会伴有"Di"的声音提示；          2.弹出Trim Funtion窗口，单击OK后Trim On，单击Cancel后Trim依旧Off；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按下左右Trim物理按钮任意键，依旧会伴有"Di"的声音提示；          2.不会弹出Trim Funtion窗口；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控器_FlightMode_014</t>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；    3.遥控器成功绑定了飞机；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试遥控器一台(含标配电池)；
+2.刷机至测试版本且系统开机成功；    3.遥控器断开与飞机的绑定关系；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在"Flight Data Telemetry Screen"主界面；2.再次按下左右Trim物理按钮任意键；                  3.检查是否弹出Trim Function窗口；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.在"Flight Data Telemetry Screen"主界面；2.按下左右Trim物理按钮任意键；                  3.检查是否弹出Trim Function窗口；             4.通过Pad退出后再次返回FlightMode；        5.再次按下左右Trim物理按钮任意键；           6.再次检查是否弹出Trim Function窗口；  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按下左右Trim物理按钮任意键，会伴有"Di"的声音提示；          2.弹出Trim Funtion窗口，单击OK后让Trim处于On状态；                                                                         3.再次进入FlightModfe后触发Trim物理按钮任意键，在伴有"Di"的声音的提示后，弹出Trim Function窗口；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.7</t>
+  </si>
+  <si>
+    <t>变更Trim功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除Trim按钮测试用例，增加隐藏Trim设置功能测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3755,7 +4056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3895,8 +4196,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3929,18 +4238,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3948,6 +4245,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4108,7 +4423,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4133,13 +4448,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4163,12 +4472,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4178,11 +4481,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4192,7 +4546,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4203,54 +4563,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4600,10 +4912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4612,70 +4924,90 @@
     <col min="7" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1"/>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1"/>
+    <row r="4" spans="1:7" ht="21" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>616</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>619</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="D5" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4683,152 +5015,152 @@
     <col min="1" max="1" width="8.875" style="3"/>
     <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43.375" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75">
-      <c r="A1" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="33">
-      <c r="A2" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="18">
+      <c r="A1" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="49.5" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="66">
+      <c r="A3" s="32">
         <v>42514</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="33">
-      <c r="A5" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="18">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="66">
+      <c r="A5" s="32">
         <v>42523</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>442</v>
+      <c r="B5" s="33"/>
+      <c r="C5" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="E6" s="24"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="18">
+      <c r="A7" s="32">
         <v>42652</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A9" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="85.5" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="E10" s="24"/>
-    </row>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="69.75" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A9" s="32">
+        <v>42661</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66.75" customHeight="1"/>
+    <row r="13" spans="1:5" ht="85.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="11">
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="A9:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4838,10 +5170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -4851,189 +5183,219 @@
     <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="38.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42" style="3" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>378</v>
+      <c r="A2" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="10">
         <v>42480</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="10">
+        <v>42496</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="10">
+        <v>42509</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="10">
+        <v>42558</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42569</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42496</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="12">
-        <v>42509</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" s="12">
-        <v>42558</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42569</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>667</v>
+      <c r="E7" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="10">
         <v>42651</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>675</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>676</v>
+      <c r="D8" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>680</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="10">
         <v>42652</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>684</v>
+      <c r="D9" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42661</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42662</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>721</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5049,8 +5411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5063,10 +5425,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -5086,61 +5448,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>453</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>312</v>
+      <c r="A1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5">
-      <c r="A2" s="28" t="s">
-        <v>681</v>
+      <c r="A2" s="43" t="s">
+        <v>589</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>613</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>637</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>638</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -5149,22 +5511,22 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="66">
-      <c r="A3" s="29"/>
-      <c r="B3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>463</v>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="66">
+      <c r="A3" s="44"/>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>640</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -5174,21 +5536,21 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="33">
-      <c r="A4" s="29"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>639</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>479</v>
+        <v>644</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>641</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -5198,23 +5560,23 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="49.5">
-      <c r="A5" s="28" t="s">
-        <v>14</v>
+      <c r="A5" s="43" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>645</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>646</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>480</v>
+        <v>642</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -5224,21 +5586,21 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="49.5">
-      <c r="A6" s="29"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>645</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>647</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>649</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -5248,21 +5610,21 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="33">
-      <c r="A7" s="29"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>653</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>648</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>481</v>
+        <v>650</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -5272,21 +5634,21 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="49.5">
-      <c r="A8" s="30"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>653</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>652</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -5296,23 +5658,23 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="82.5">
-      <c r="A9" s="28" t="s">
-        <v>682</v>
+      <c r="A9" s="43" t="s">
+        <v>590</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>654</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>386</v>
+        <v>655</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>482</v>
+        <v>656</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -5322,21 +5684,21 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="82.5">
-      <c r="A10" s="29"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="2" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>317</v>
+        <v>654</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>657</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>483</v>
+        <v>658</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -5346,21 +5708,21 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="82.5">
-      <c r="A11" s="29"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="2" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>317</v>
+        <v>654</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>659</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>660</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -5370,21 +5732,21 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="82.5">
-      <c r="A12" s="29"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="2" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>386</v>
+        <v>655</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>484</v>
+        <v>661</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -5394,21 +5756,21 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="82.5">
-      <c r="A13" s="29"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="2" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>664</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>485</v>
+        <v>663</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -5418,21 +5780,21 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="82.5">
-      <c r="A14" s="30"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="2" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>665</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>666</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -5442,23 +5804,23 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
-      <c r="A15" s="28" t="s">
-        <v>33</v>
+      <c r="A15" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>668</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>669</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -5468,21 +5830,21 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="33">
-      <c r="A16" s="29"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>670</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -5492,21 +5854,21 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="49.5">
-      <c r="A17" s="29"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>671</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>672</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -5516,21 +5878,21 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="49.5">
-      <c r="A18" s="29"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>673</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>674</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -5540,21 +5902,21 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="82.5">
-      <c r="A19" s="29"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>675</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>676</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>677</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -5564,21 +5926,21 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="66">
-      <c r="A20" s="30"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>678</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>679</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>680</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -5587,24 +5949,24 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="132">
-      <c r="A21" s="28" t="s">
-        <v>49</v>
+    <row r="21" spans="1:12" ht="148.5">
+      <c r="A21" s="43" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>681</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>486</v>
+        <v>696</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -5614,21 +5976,21 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="66">
-      <c r="A22" s="29"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>682</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>487</v>
+        <v>683</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -5638,21 +6000,21 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="82.5">
-      <c r="A23" s="29"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>387</v>
+        <v>684</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>433</v>
+        <v>685</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>686</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -5662,21 +6024,21 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="49.5">
-      <c r="A24" s="29"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>687</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>688</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -5685,22 +6047,22 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="165">
-      <c r="A25" s="29"/>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>488</v>
+    <row r="25" spans="1:12" ht="181.5">
+      <c r="A25" s="44"/>
+      <c r="B25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>697</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -5709,22 +6071,22 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="82.5">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:12" ht="99">
+      <c r="A26" s="44"/>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>328</v>
+        <v>691</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>692</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>489</v>
+        <v>698</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -5734,21 +6096,21 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" ht="82.5">
-      <c r="A27" s="29"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>328</v>
+        <v>691</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>493</v>
+        <v>693</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>490</v>
+        <v>699</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -5758,21 +6120,21 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="82.5">
-      <c r="A28" s="29"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="2" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>328</v>
+        <v>691</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>494</v>
+        <v>694</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>495</v>
+        <v>700</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -5782,21 +6144,21 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" ht="99">
-      <c r="A29" s="29"/>
-      <c r="B29" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>73</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>702</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -5806,21 +6168,21 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="82.5">
-      <c r="A30" s="29"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="2" t="s">
-        <v>497</v>
+        <v>417</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>703</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>704</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -5830,21 +6192,21 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="66">
-      <c r="A31" s="29"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="2" t="s">
-        <v>498</v>
+        <v>418</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>705</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>491</v>
+        <v>706</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -5853,22 +6215,22 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="66">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:12" ht="49.5">
+      <c r="A32" s="44"/>
       <c r="B32" s="2" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>707</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -5877,22 +6239,22 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="165">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:12" ht="49.5">
+      <c r="A33" s="44"/>
       <c r="B33" s="2" t="s">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>715</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -5901,22 +6263,22 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="82.5">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:12" ht="99">
+      <c r="A34" s="44"/>
       <c r="B34" s="2" t="s">
-        <v>501</v>
+        <v>713</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>530</v>
+        <v>714</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>531</v>
+        <v>717</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>532</v>
+        <v>718</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -5925,22 +6287,22 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="66">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:12" ht="82.5">
+      <c r="A35" s="44"/>
       <c r="B35" s="2" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>434</v>
+        <v>707</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>708</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>78</v>
+        <v>709</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -5949,22 +6311,22 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="165">
-      <c r="A36" s="29"/>
-      <c r="B36" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>80</v>
+    <row r="36" spans="1:12" ht="66">
+      <c r="A36" s="44"/>
+      <c r="B36" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -5973,22 +6335,22 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="49.5">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:12" ht="165">
+      <c r="A37" s="44"/>
       <c r="B37" s="2" t="s">
-        <v>504</v>
+        <v>422</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>537</v>
+        <v>37</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -5997,22 +6359,22 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="82.5">
-      <c r="A38" s="29"/>
+    <row r="38" spans="1:12" ht="49.5">
+      <c r="A38" s="44"/>
       <c r="B38" s="2" t="s">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>538</v>
+        <v>384</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>539</v>
+        <v>453</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -6021,22 +6383,22 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="99">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:12" ht="82.5">
+      <c r="A39" s="44"/>
       <c r="B39" s="2" t="s">
-        <v>506</v>
+        <v>424</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>538</v>
+        <v>454</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>540</v>
+        <v>455</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -6045,22 +6407,22 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="66">
-      <c r="A40" s="29"/>
+    <row r="40" spans="1:12" ht="99">
+      <c r="A40" s="44"/>
       <c r="B40" s="2" t="s">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>454</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>541</v>
+        <v>456</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -6070,21 +6432,21 @@
       <c r="L40" s="4"/>
     </row>
     <row r="41" spans="1:12" ht="66">
-      <c r="A41" s="29"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="2" t="s">
-        <v>508</v>
+        <v>426</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>612</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>604</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>542</v>
+        <v>457</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -6093,22 +6455,22 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="99">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:12" ht="66">
+      <c r="A42" s="44"/>
       <c r="B42" s="2" t="s">
-        <v>509</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>611</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>19</v>
+        <v>605</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -6117,22 +6479,22 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="99">
-      <c r="A43" s="29"/>
+    <row r="43" spans="1:12" ht="82.5">
+      <c r="A43" s="44"/>
       <c r="B43" s="2" t="s">
-        <v>510</v>
+        <v>607</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>610</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>21</v>
+        <v>609</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>608</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -6141,22 +6503,22 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="82.5">
-      <c r="A44" s="29"/>
+    <row r="44" spans="1:12" ht="99">
+      <c r="A44" s="44"/>
       <c r="B44" s="2" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>456</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>435</v>
+        <v>10</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -6165,22 +6527,22 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="82.5">
-      <c r="A45" s="29"/>
+    <row r="45" spans="1:12" ht="99">
+      <c r="A45" s="44"/>
       <c r="B45" s="2" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>543</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -6189,22 +6551,22 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="132">
-      <c r="A46" s="29"/>
+    <row r="46" spans="1:12" ht="82.5">
+      <c r="A46" s="44"/>
       <c r="B46" s="2" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>546</v>
+        <v>394</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>544</v>
+        <v>376</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -6213,22 +6575,22 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="99">
-      <c r="A47" s="29"/>
+    <row r="47" spans="1:12" ht="82.5">
+      <c r="A47" s="44"/>
       <c r="B47" s="2" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>545</v>
+        <v>75</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>547</v>
+        <v>458</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -6237,22 +6599,22 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="82.5">
-      <c r="A48" s="29"/>
+    <row r="48" spans="1:12" ht="132">
+      <c r="A48" s="44"/>
       <c r="B48" s="2" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>686</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>548</v>
+        <v>461</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -6261,22 +6623,22 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="82.5">
-      <c r="A49" s="29"/>
+    <row r="49" spans="1:12" ht="99">
+      <c r="A49" s="44"/>
       <c r="B49" s="2" t="s">
-        <v>685</v>
+        <v>433</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>687</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>688</v>
+        <v>460</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>689</v>
+        <v>462</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -6285,22 +6647,22 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="66">
-      <c r="A50" s="29"/>
+    <row r="50" spans="1:12" ht="82.5">
+      <c r="A50" s="44"/>
       <c r="B50" s="2" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>96</v>
+        <v>463</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>551</v>
+        <v>464</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -6309,22 +6671,22 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="66">
-      <c r="A51" s="29"/>
+    <row r="51" spans="1:12" ht="82.5">
+      <c r="A51" s="44"/>
       <c r="B51" s="2" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>603</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>436</v>
+        <v>598</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -6333,22 +6695,22 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="49.5">
-      <c r="A52" s="29"/>
+    <row r="52" spans="1:12" ht="82.5">
+      <c r="A52" s="44"/>
       <c r="B52" s="2" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>599</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>437</v>
+        <v>602</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>438</v>
+        <v>597</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -6357,22 +6719,22 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="49.5">
-      <c r="A53" s="29"/>
+    <row r="53" spans="1:12" ht="66">
+      <c r="A53" s="44"/>
       <c r="B53" s="2" t="s">
-        <v>519</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>465</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>553</v>
+        <v>466</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -6381,22 +6743,22 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="49.5">
-      <c r="A54" s="29"/>
+    <row r="54" spans="1:12" ht="66">
+      <c r="A54" s="44"/>
       <c r="B54" s="2" t="s">
-        <v>520</v>
+        <v>436</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>554</v>
+        <v>377</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -6405,22 +6767,22 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="66">
-      <c r="A55" s="29"/>
+    <row r="55" spans="1:12" ht="49.5">
+      <c r="A55" s="44"/>
       <c r="B55" s="2" t="s">
-        <v>521</v>
+        <v>437</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>555</v>
+        <v>379</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -6429,22 +6791,22 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="66">
-      <c r="A56" s="29"/>
+    <row r="56" spans="1:12" ht="49.5">
+      <c r="A56" s="44"/>
       <c r="B56" s="2" t="s">
-        <v>522</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>556</v>
+        <v>468</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -6453,22 +6815,22 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="82.5">
-      <c r="A57" s="29"/>
+    <row r="57" spans="1:12" ht="49.5">
+      <c r="A57" s="44"/>
       <c r="B57" s="2" t="s">
-        <v>523</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>101</v>
+        <v>50</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -6477,22 +6839,22 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="49.5">
-      <c r="A58" s="29"/>
+    <row r="58" spans="1:12" ht="66">
+      <c r="A58" s="44"/>
       <c r="B58" s="2" t="s">
-        <v>524</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>103</v>
+        <v>470</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -6501,22 +6863,22 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="99">
-      <c r="A59" s="29"/>
+    <row r="59" spans="1:12" ht="66">
+      <c r="A59" s="44"/>
       <c r="B59" s="2" t="s">
-        <v>525</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -6525,22 +6887,22 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="99">
-      <c r="A60" s="29"/>
+    <row r="60" spans="1:12" ht="82.5">
+      <c r="A60" s="44"/>
       <c r="B60" s="2" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>107</v>
+        <v>395</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -6549,22 +6911,22 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="66">
-      <c r="A61" s="29"/>
+    <row r="61" spans="1:12" ht="49.5">
+      <c r="A61" s="44"/>
       <c r="B61" s="2" t="s">
-        <v>527</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>557</v>
+        <v>56</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -6573,22 +6935,22 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="49.5">
-      <c r="A62" s="29"/>
+    <row r="62" spans="1:12" ht="99">
+      <c r="A62" s="44"/>
       <c r="B62" s="2" t="s">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>112</v>
+        <v>57</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -6597,22 +6959,22 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="66">
-      <c r="A63" s="29"/>
+    <row r="63" spans="1:12" ht="99">
+      <c r="A63" s="44"/>
       <c r="B63" s="2" t="s">
-        <v>529</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -6621,22 +6983,22 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="82.5">
-      <c r="A64" s="29"/>
+    <row r="64" spans="1:12" ht="66">
+      <c r="A64" s="44"/>
       <c r="B64" s="2" t="s">
-        <v>533</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>116</v>
+        <v>472</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -6645,22 +7007,22 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="82.5">
-      <c r="A65" s="30"/>
+    <row r="65" spans="1:12" ht="49.5">
+      <c r="A65" s="44"/>
       <c r="B65" s="2" t="s">
-        <v>534</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -6669,24 +7031,22 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" ht="132">
-      <c r="A66" s="28" t="s">
-        <v>271</v>
-      </c>
+    <row r="66" spans="1:12" ht="66">
+      <c r="A66" s="44"/>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>561</v>
+        <v>66</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>559</v>
+        <v>67</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -6695,22 +7055,22 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="99">
-      <c r="A67" s="29"/>
+    <row r="67" spans="1:12" ht="82.5">
+      <c r="A67" s="44"/>
       <c r="B67" s="2" t="s">
-        <v>558</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>321</v>
+        <v>69</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -6719,22 +7079,22 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="99" customHeight="1">
-      <c r="A68" s="29"/>
+    <row r="68" spans="1:12" ht="82.5">
+      <c r="A68" s="45"/>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>322</v>
+        <v>70</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>71</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -6743,22 +7103,24 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A69" s="29"/>
+    <row r="69" spans="1:12" ht="132">
+      <c r="A69" s="43" t="s">
+        <v>224</v>
+      </c>
       <c r="B69" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>325</v>
+        <v>474</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -6767,22 +7129,22 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A70" s="29"/>
+    <row r="70" spans="1:12" ht="99">
+      <c r="A70" s="44"/>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>473</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -6792,21 +7154,21 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="99" customHeight="1">
-      <c r="A71" s="29"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="2" t="s">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>440</v>
+        <v>273</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>569</v>
+        <v>274</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -6815,22 +7177,22 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="66">
-      <c r="A72" s="30"/>
+    <row r="72" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A72" s="44"/>
       <c r="B72" s="2" t="s">
-        <v>663</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>562</v>
+        <v>275</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>560</v>
+        <v>276</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -6839,24 +7201,22 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A73" s="29" t="s">
-        <v>658</v>
-      </c>
+    <row r="73" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A73" s="44"/>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -6865,22 +7225,22 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A74" s="29"/>
+    <row r="74" spans="1:12" ht="99" customHeight="1">
+      <c r="A74" s="44"/>
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -6889,22 +7249,22 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A75" s="29"/>
+    <row r="75" spans="1:12" ht="66">
+      <c r="A75" s="45"/>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>578</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -6914,23 +7274,23 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A76" s="29" t="s">
-        <v>659</v>
+      <c r="A76" s="44" t="s">
+        <v>573</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>572</v>
+        <v>85</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>571</v>
+        <v>86</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -6940,21 +7300,21 @@
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A77" s="29"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>573</v>
+        <v>87</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -6963,22 +7323,22 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="198" customHeight="1">
-      <c r="A78" s="29"/>
+    <row r="78" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A78" s="44"/>
       <c r="B78" s="2" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -6988,21 +7348,23 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A79" s="29"/>
+      <c r="A79" s="44" t="s">
+        <v>574</v>
+      </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>145</v>
+        <v>487</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>146</v>
+        <v>486</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -7012,23 +7374,21 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A80" s="29" t="s">
-        <v>660</v>
-      </c>
+      <c r="A80" s="44"/>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>574</v>
+        <v>488</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>575</v>
+        <v>94</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -7037,22 +7397,22 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="132" customHeight="1">
-      <c r="A81" s="29"/>
+    <row r="81" spans="1:12" ht="198" customHeight="1">
+      <c r="A81" s="44"/>
       <c r="B81" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -7061,22 +7421,22 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A82" s="29"/>
+    <row r="82" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A82" s="44"/>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -7085,22 +7445,24 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="363" customHeight="1">
-      <c r="A83" s="29"/>
+    <row r="83" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A83" s="44" t="s">
+        <v>575</v>
+      </c>
       <c r="B83" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -7109,22 +7471,22 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="165" customHeight="1">
-      <c r="A84" s="29"/>
+    <row r="84" spans="1:12" ht="132" customHeight="1">
+      <c r="A84" s="44"/>
       <c r="B84" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -7133,24 +7495,22 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A85" s="29" t="s">
-        <v>661</v>
-      </c>
+    <row r="85" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A85" s="44"/>
       <c r="B85" s="2" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -7159,22 +7519,22 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A86" s="29"/>
+    <row r="86" spans="1:12" ht="363" customHeight="1">
+      <c r="A86" s="44"/>
       <c r="B86" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>570</v>
+        <v>491</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -7183,22 +7543,22 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A87" s="29"/>
+    <row r="87" spans="1:12" ht="165" customHeight="1">
+      <c r="A87" s="44"/>
       <c r="B87" s="2" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -7208,21 +7568,23 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A88" s="29"/>
+      <c r="A88" s="44" t="s">
+        <v>576</v>
+      </c>
       <c r="B88" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>577</v>
+        <v>114</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -7232,21 +7594,21 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A89" s="29"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="2" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -7256,21 +7618,21 @@
       <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A90" s="29"/>
+      <c r="A90" s="44"/>
       <c r="B90" s="2" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -7280,21 +7642,21 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A91" s="29"/>
+      <c r="A91" s="44"/>
       <c r="B91" s="2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -7304,21 +7666,21 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A92" s="29"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -7328,21 +7690,21 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A93" s="29"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -7352,21 +7714,21 @@
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A94" s="29"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>578</v>
+        <v>128</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -7376,23 +7738,21 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A95" s="29" t="s">
-        <v>662</v>
-      </c>
+      <c r="A95" s="44"/>
       <c r="B95" s="2" t="s">
-        <v>619</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>570</v>
+        <v>485</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -7401,22 +7761,22 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" ht="132" customHeight="1">
-      <c r="A96" s="29"/>
+    <row r="96" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A96" s="44"/>
       <c r="B96" s="2" t="s">
-        <v>620</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>580</v>
+        <v>135</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -7425,22 +7785,22 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A97" s="29"/>
+    <row r="97" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A97" s="44"/>
       <c r="B97" s="2" t="s">
-        <v>621</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>581</v>
+        <v>136</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -7449,22 +7809,24 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="132" customHeight="1">
-      <c r="A98" s="29"/>
+    <row r="98" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A98" s="44" t="s">
+        <v>577</v>
+      </c>
       <c r="B98" s="2" t="s">
-        <v>622</v>
+        <v>534</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>582</v>
+        <v>138</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7473,22 +7835,22 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="231" customHeight="1">
-      <c r="A99" s="29"/>
+    <row r="99" spans="1:12" ht="132" customHeight="1">
+      <c r="A99" s="44"/>
       <c r="B99" s="2" t="s">
-        <v>623</v>
+        <v>535</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>590</v>
+        <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>584</v>
+        <v>495</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7497,22 +7859,22 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A100" s="29"/>
+    <row r="100" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A100" s="44"/>
       <c r="B100" s="2" t="s">
-        <v>624</v>
+        <v>536</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>585</v>
+        <v>494</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>189</v>
+        <v>496</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7521,22 +7883,22 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A101" s="29"/>
+    <row r="101" spans="1:12" ht="132" customHeight="1">
+      <c r="A101" s="44"/>
       <c r="B101" s="2" t="s">
-        <v>625</v>
+        <v>537</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>191</v>
+        <v>497</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7545,22 +7907,22 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="132" customHeight="1">
-      <c r="A102" s="29"/>
+    <row r="102" spans="1:12" ht="231" customHeight="1">
+      <c r="A102" s="44"/>
       <c r="B102" s="2" t="s">
-        <v>626</v>
+        <v>538</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>586</v>
+        <v>498</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>192</v>
+        <v>505</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>193</v>
+        <v>499</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7569,21 +7931,23 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A103" s="29"/>
+    <row r="103" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A103" s="44"/>
       <c r="B103" s="2" t="s">
-        <v>627</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -7591,22 +7955,22 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="132" customHeight="1">
-      <c r="A104" s="29"/>
+    <row r="104" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A104" s="44"/>
       <c r="B104" s="2" t="s">
-        <v>628</v>
+        <v>540</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>579</v>
+        <v>501</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7616,21 +7980,21 @@
       <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="132" customHeight="1">
-      <c r="A105" s="29"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="2" t="s">
-        <v>629</v>
+        <v>541</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>579</v>
+        <v>501</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>587</v>
+        <v>146</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7639,23 +8003,21 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A106" s="29"/>
+    <row r="106" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A106" s="44"/>
       <c r="B106" s="2" t="s">
-        <v>630</v>
+        <v>542</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>588</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -7663,22 +8025,22 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A107" s="29"/>
+    <row r="107" spans="1:12" ht="132" customHeight="1">
+      <c r="A107" s="44"/>
       <c r="B107" s="2" t="s">
-        <v>631</v>
+        <v>543</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -7687,22 +8049,22 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A108" s="29"/>
+    <row r="108" spans="1:12" ht="132" customHeight="1">
+      <c r="A108" s="44"/>
       <c r="B108" s="2" t="s">
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -7711,22 +8073,22 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" ht="132" customHeight="1">
-      <c r="A109" s="29"/>
+    <row r="109" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A109" s="44"/>
       <c r="B109" s="2" t="s">
-        <v>633</v>
+        <v>545</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>594</v>
+        <v>507</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>203</v>
+        <v>504</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>204</v>
+        <v>503</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -7735,22 +8097,22 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="132" customHeight="1">
-      <c r="A110" s="29"/>
+    <row r="110" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A110" s="44"/>
       <c r="B110" s="2" t="s">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>594</v>
+        <v>508</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -7759,21 +8121,23 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A111" s="29"/>
+    <row r="111" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A111" s="44"/>
       <c r="B111" s="2" t="s">
-        <v>635</v>
+        <v>547</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>570</v>
+        <v>508</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F111" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -7781,22 +8145,22 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="198" customHeight="1">
-      <c r="A112" s="29"/>
+    <row r="112" spans="1:12" ht="132" customHeight="1">
+      <c r="A112" s="44"/>
       <c r="B112" s="2" t="s">
-        <v>636</v>
+        <v>548</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>579</v>
+        <v>509</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>595</v>
+        <v>156</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>596</v>
+        <v>157</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -7805,22 +8169,22 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A113" s="29"/>
+    <row r="113" spans="1:12" ht="132" customHeight="1">
+      <c r="A113" s="44"/>
       <c r="B113" s="2" t="s">
-        <v>637</v>
+        <v>549</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -7829,23 +8193,21 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A114" s="29"/>
+    <row r="114" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A114" s="44"/>
       <c r="B114" s="2" t="s">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>599</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -7853,22 +8215,22 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="132" customHeight="1">
-      <c r="A115" s="29"/>
+    <row r="115" spans="1:12" ht="198" customHeight="1">
+      <c r="A115" s="44"/>
       <c r="B115" s="2" t="s">
-        <v>639</v>
+        <v>551</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>598</v>
+        <v>494</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>204</v>
+        <v>511</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -7877,22 +8239,22 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="132" customHeight="1">
-      <c r="A116" s="29"/>
+    <row r="116" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A116" s="44"/>
       <c r="B116" s="2" t="s">
-        <v>640</v>
+        <v>552</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -7901,21 +8263,23 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A117" s="29"/>
+    <row r="117" spans="1:12" ht="181.5" customHeight="1">
+      <c r="A117" s="44"/>
       <c r="B117" s="2" t="s">
-        <v>641</v>
+        <v>553</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F117" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>514</v>
+      </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
@@ -7923,22 +8287,22 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="1:12" ht="264" customHeight="1">
-      <c r="A118" s="29"/>
+    <row r="118" spans="1:12" ht="132" customHeight="1">
+      <c r="A118" s="44"/>
       <c r="B118" s="2" t="s">
-        <v>642</v>
+        <v>554</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>601</v>
+        <v>157</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -7947,22 +8311,22 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A119" s="29"/>
+    <row r="119" spans="1:12" ht="132" customHeight="1">
+      <c r="A119" s="44"/>
       <c r="B119" s="2" t="s">
-        <v>643</v>
+        <v>555</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -7971,23 +8335,21 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A120" s="29"/>
+    <row r="120" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A120" s="44"/>
       <c r="B120" s="2" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>602</v>
+        <v>485</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>603</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
@@ -7995,22 +8357,22 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="132" customHeight="1">
-      <c r="A121" s="29"/>
+    <row r="121" spans="1:12" ht="264" customHeight="1">
+      <c r="A121" s="44"/>
       <c r="B121" s="2" t="s">
-        <v>645</v>
+        <v>557</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>213</v>
+        <v>516</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -8019,22 +8381,22 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="132" customHeight="1">
-      <c r="A122" s="29"/>
+    <row r="122" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A122" s="44"/>
       <c r="B122" s="2" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8043,21 +8405,23 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A123" s="29"/>
+    <row r="123" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A123" s="44"/>
       <c r="B123" s="2" t="s">
-        <v>647</v>
+        <v>559</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -8065,22 +8429,22 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A124" s="29"/>
+    <row r="124" spans="1:12" ht="132" customHeight="1">
+      <c r="A124" s="44"/>
       <c r="B124" s="2" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>606</v>
+        <v>519</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>607</v>
+        <v>166</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -8089,22 +8453,22 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="165" customHeight="1">
-      <c r="A125" s="29"/>
+    <row r="125" spans="1:12" ht="132" customHeight="1">
+      <c r="A125" s="44"/>
       <c r="B125" s="2" t="s">
-        <v>649</v>
+        <v>561</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>608</v>
+        <v>520</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>609</v>
+        <v>167</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -8113,23 +8477,21 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A126" s="29"/>
+    <row r="126" spans="1:12" ht="115.5" customHeight="1">
+      <c r="A126" s="44"/>
       <c r="B126" s="2" t="s">
-        <v>650</v>
+        <v>562</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>610</v>
+        <v>485</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>612</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
@@ -8137,22 +8499,22 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="165" customHeight="1">
-      <c r="A127" s="29"/>
+    <row r="127" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A127" s="44"/>
       <c r="B127" s="2" t="s">
-        <v>651</v>
+        <v>563</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>613</v>
+        <v>521</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -8162,21 +8524,21 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="165" customHeight="1">
-      <c r="A128" s="29"/>
+      <c r="A128" s="44"/>
       <c r="B128" s="2" t="s">
-        <v>652</v>
+        <v>564</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>615</v>
+        <v>523</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>616</v>
+        <v>524</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>617</v>
+        <v>170</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -8186,21 +8548,21 @@
       <c r="L128" s="4"/>
     </row>
     <row r="129" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A129" s="29"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="2" t="s">
-        <v>653</v>
+        <v>565</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>332</v>
+        <v>525</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>612</v>
+        <v>527</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -8210,21 +8572,21 @@
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="165" customHeight="1">
-      <c r="A130" s="29"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="2" t="s">
-        <v>654</v>
+        <v>566</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
@@ -8233,22 +8595,22 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A131" s="29"/>
+    <row r="131" spans="1:12" ht="165" customHeight="1">
+      <c r="A131" s="44"/>
       <c r="B131" s="2" t="s">
-        <v>655</v>
+        <v>567</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>219</v>
+        <v>530</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>220</v>
+        <v>531</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>221</v>
+        <v>532</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -8257,24 +8619,22 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="115.5">
-      <c r="A132" s="28" t="s">
-        <v>231</v>
-      </c>
+    <row r="132" spans="1:12" ht="148.5" customHeight="1">
+      <c r="A132" s="44"/>
       <c r="B132" s="2" t="s">
-        <v>232</v>
+        <v>568</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>238</v>
+        <v>526</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -8283,22 +8643,22 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="115.5">
-      <c r="A133" s="29"/>
+    <row r="133" spans="1:12" ht="165" customHeight="1">
+      <c r="A133" s="44"/>
       <c r="B133" s="2" t="s">
-        <v>235</v>
+        <v>569</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -8307,22 +8667,22 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
     </row>
-    <row r="134" spans="1:12" ht="115.5">
-      <c r="A134" s="29"/>
+    <row r="134" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A134" s="44"/>
       <c r="B134" s="2" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -8332,21 +8692,23 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="115.5">
-      <c r="A135" s="29"/>
+      <c r="A135" s="43" t="s">
+        <v>184</v>
+      </c>
       <c r="B135" s="2" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
@@ -8356,21 +8718,21 @@
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="115.5">
-      <c r="A136" s="29"/>
+      <c r="A136" s="44"/>
       <c r="B136" s="2" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -8380,21 +8742,21 @@
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="115.5">
-      <c r="A137" s="29"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="2" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -8404,21 +8766,21 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="115.5">
-      <c r="A138" s="29"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="2" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>656</v>
+        <v>200</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -8428,23 +8790,21 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="115.5">
-      <c r="A139" s="28" t="s">
-        <v>348</v>
-      </c>
+      <c r="A139" s="44"/>
       <c r="B139" s="2" t="s">
-        <v>349</v>
+        <v>195</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>356</v>
+        <v>186</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>357</v>
+        <v>198</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>459</v>
+        <v>194</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -8454,21 +8814,21 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="115.5">
-      <c r="A140" s="29"/>
+      <c r="A140" s="44"/>
       <c r="B140" s="2" t="s">
-        <v>350</v>
+        <v>221</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -8478,21 +8838,21 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="115.5">
-      <c r="A141" s="29"/>
+      <c r="A141" s="44"/>
       <c r="B141" s="2" t="s">
-        <v>351</v>
+        <v>222</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>361</v>
+        <v>571</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -8502,21 +8862,23 @@
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="115.5">
-      <c r="A142" s="29"/>
+      <c r="A142" s="43" t="s">
+        <v>298</v>
+      </c>
       <c r="B142" s="2" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -8526,21 +8888,21 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="115.5">
-      <c r="A143" s="29"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="2" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -8550,21 +8912,21 @@
       <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" ht="115.5">
-      <c r="A144" s="29"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="2" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -8574,21 +8936,21 @@
       <c r="L144" s="4"/>
     </row>
     <row r="145" spans="1:12" ht="115.5">
-      <c r="A145" s="29"/>
+      <c r="A145" s="44"/>
       <c r="B145" s="2" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
@@ -8598,21 +8960,21 @@
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" ht="115.5">
-      <c r="A146" s="29"/>
+      <c r="A146" s="44"/>
       <c r="B146" s="2" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -8621,24 +8983,22 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="132">
-      <c r="A147" s="28" t="s">
-        <v>249</v>
-      </c>
+    <row r="147" spans="1:12" ht="115.5">
+      <c r="A147" s="44"/>
       <c r="B147" s="2" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>657</v>
+        <v>305</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -8647,22 +9007,22 @@
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="132">
-      <c r="A148" s="29"/>
+    <row r="148" spans="1:12" ht="115.5">
+      <c r="A148" s="44"/>
       <c r="B148" s="2" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>657</v>
+        <v>305</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -8671,22 +9031,22 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="132">
-      <c r="A149" s="29"/>
+    <row r="149" spans="1:12" ht="115.5">
+      <c r="A149" s="44"/>
       <c r="B149" s="2" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>657</v>
+        <v>305</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -8696,21 +9056,23 @@
       <c r="L149" s="4"/>
     </row>
     <row r="150" spans="1:12" ht="132">
-      <c r="A150" s="29"/>
+      <c r="A150" s="43" t="s">
+        <v>202</v>
+      </c>
       <c r="B150" s="2" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -8720,21 +9082,21 @@
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="132">
-      <c r="A151" s="29"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="2" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
@@ -8744,21 +9106,21 @@
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="132">
-      <c r="A152" s="30"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="2" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -8767,24 +9129,22 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="115.5">
-      <c r="A153" s="28" t="s">
-        <v>272</v>
-      </c>
+    <row r="153" spans="1:12" ht="132">
+      <c r="A153" s="44"/>
       <c r="B153" s="2" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -8793,22 +9153,22 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="115.5">
-      <c r="A154" s="29"/>
+    <row r="154" spans="1:12" ht="132">
+      <c r="A154" s="44"/>
       <c r="B154" s="2" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -8817,22 +9177,22 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="115.5">
-      <c r="A155" s="29"/>
+    <row r="155" spans="1:12" ht="132">
+      <c r="A155" s="45"/>
       <c r="B155" s="2" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -8842,21 +9202,23 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="115.5">
-      <c r="A156" s="29"/>
+      <c r="A156" s="43" t="s">
+        <v>225</v>
+      </c>
       <c r="B156" s="2" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -8865,22 +9227,22 @@
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="148.5">
-      <c r="A157" s="30"/>
+    <row r="157" spans="1:12" ht="115.5">
+      <c r="A157" s="44"/>
       <c r="B157" s="2" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>334</v>
+        <v>485</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
@@ -8889,24 +9251,22 @@
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" ht="66">
-      <c r="A158" s="28" t="s">
-        <v>288</v>
-      </c>
+    <row r="158" spans="1:12" ht="115.5">
+      <c r="A158" s="44"/>
       <c r="B158" s="2" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -8915,22 +9275,22 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12" ht="66">
-      <c r="A159" s="29"/>
+    <row r="159" spans="1:12" ht="115.5">
+      <c r="A159" s="44"/>
       <c r="B159" s="2" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -8939,22 +9299,22 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="66">
-      <c r="A160" s="29"/>
+    <row r="160" spans="1:12" ht="148.5">
+      <c r="A160" s="45"/>
       <c r="B160" s="2" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -8964,21 +9324,23 @@
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="66">
-      <c r="A161" s="29"/>
+      <c r="A161" s="43" t="s">
+        <v>241</v>
+      </c>
       <c r="B161" s="2" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -8987,22 +9349,22 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:12" ht="82.5">
-      <c r="A162" s="29"/>
+    <row r="162" spans="1:12" ht="66">
+      <c r="A162" s="44"/>
       <c r="B162" s="2" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -9011,22 +9373,22 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:12" ht="82.5">
-      <c r="A163" s="30"/>
+    <row r="163" spans="1:12" ht="66">
+      <c r="A163" s="44"/>
       <c r="B163" s="2" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -9035,24 +9397,22 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" ht="99">
-      <c r="A164" s="28" t="s">
-        <v>222</v>
-      </c>
+    <row r="164" spans="1:12" ht="66">
+      <c r="A164" s="44"/>
       <c r="B164" s="2" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>460</v>
+        <v>254</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -9061,22 +9421,22 @@
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" ht="148.5">
-      <c r="A165" s="29"/>
+    <row r="165" spans="1:12" ht="82.5">
+      <c r="A165" s="44"/>
       <c r="B165" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>461</v>
+        <v>259</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>441</v>
+        <v>260</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -9085,22 +9445,22 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" ht="99">
-      <c r="A166" s="29"/>
+    <row r="166" spans="1:12" ht="82.5">
+      <c r="A166" s="45"/>
       <c r="B166" s="2" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>462</v>
+        <v>259</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -9109,22 +9469,24 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" ht="148.5">
-      <c r="A167" s="29"/>
+    <row r="167" spans="1:12" ht="99">
+      <c r="A167" s="43" t="s">
+        <v>175</v>
+      </c>
       <c r="B167" s="2" t="s">
-        <v>413</v>
+        <v>176</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -9133,22 +9495,22 @@
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:12" ht="82.5">
-      <c r="A168" s="29"/>
+    <row r="168" spans="1:12" ht="148.5">
+      <c r="A168" s="44"/>
       <c r="B168" s="2" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>563</v>
+        <v>183</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -9157,22 +9519,22 @@
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:12" ht="66">
-      <c r="A169" s="29"/>
-      <c r="B169" s="15" t="s">
-        <v>402</v>
+    <row r="169" spans="1:12" ht="99">
+      <c r="A169" s="44"/>
+      <c r="B169" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>411</v>
+        <v>181</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -9181,22 +9543,22 @@
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:12" ht="66">
-      <c r="A170" s="29"/>
-      <c r="B170" s="15" t="s">
-        <v>403</v>
+    <row r="170" spans="1:12" ht="148.5">
+      <c r="A170" s="44"/>
+      <c r="B170" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>469</v>
+        <v>336</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -9205,22 +9567,22 @@
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:12" ht="66">
-      <c r="A171" s="29"/>
-      <c r="B171" s="15" t="s">
-        <v>337</v>
+    <row r="171" spans="1:12" ht="82.5">
+      <c r="A171" s="44"/>
+      <c r="B171" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>564</v>
+        <v>286</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>396</v>
+        <v>478</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -9229,22 +9591,22 @@
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:12" ht="99">
-      <c r="A172" s="29"/>
-      <c r="B172" s="15" t="s">
-        <v>341</v>
+    <row r="172" spans="1:12" ht="66">
+      <c r="A172" s="44"/>
+      <c r="B172" s="13" t="s">
+        <v>348</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>565</v>
+        <v>358</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -9254,21 +9616,21 @@
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" ht="66">
-      <c r="A173" s="29"/>
-      <c r="B173" s="15" t="s">
-        <v>344</v>
+      <c r="A173" s="44"/>
+      <c r="B173" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -9278,21 +9640,21 @@
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="66">
-      <c r="A174" s="29"/>
-      <c r="B174" s="15" t="s">
-        <v>345</v>
+      <c r="A174" s="44"/>
+      <c r="B174" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>398</v>
+        <v>479</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>471</v>
+        <v>342</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -9301,22 +9663,22 @@
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
     </row>
-    <row r="175" spans="1:12" ht="66">
-      <c r="A175" s="29"/>
-      <c r="B175" s="15" t="s">
-        <v>346</v>
+    <row r="175" spans="1:12" ht="99">
+      <c r="A175" s="44"/>
+      <c r="B175" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -9325,22 +9687,22 @@
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:12" ht="82.5">
-      <c r="A176" s="29"/>
-      <c r="B176" s="15" t="s">
-        <v>404</v>
+    <row r="176" spans="1:12" ht="66">
+      <c r="A176" s="44"/>
+      <c r="B176" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -9349,22 +9711,22 @@
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:12" ht="82.5">
-      <c r="A177" s="29"/>
-      <c r="B177" s="15" t="s">
-        <v>405</v>
+    <row r="177" spans="1:12" ht="66">
+      <c r="A177" s="44"/>
+      <c r="B177" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F177" s="21" t="s">
-        <v>417</v>
+        <v>344</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -9373,22 +9735,22 @@
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:12" ht="82.5">
-      <c r="A178" s="29"/>
-      <c r="B178" s="15" t="s">
-        <v>406</v>
+    <row r="178" spans="1:12" ht="66">
+      <c r="A178" s="44"/>
+      <c r="B178" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>418</v>
+        <v>346</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>566</v>
+        <v>347</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
@@ -9397,22 +9759,22 @@
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:12" ht="99">
-      <c r="A179" s="29"/>
-      <c r="B179" s="2" t="s">
-        <v>419</v>
+    <row r="179" spans="1:12" ht="82.5">
+      <c r="A179" s="44"/>
+      <c r="B179" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>473</v>
+        <v>340</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
@@ -9421,22 +9783,22 @@
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:12" ht="66">
-      <c r="A180" s="29"/>
-      <c r="B180" s="2" t="s">
-        <v>407</v>
+    <row r="180" spans="1:12" ht="82.5">
+      <c r="A180" s="44"/>
+      <c r="B180" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>474</v>
+        <v>340</v>
+      </c>
+      <c r="F180" s="17" t="s">
+        <v>363</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
@@ -9445,22 +9807,22 @@
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
     </row>
-    <row r="181" spans="1:12" ht="66">
-      <c r="A181" s="29"/>
-      <c r="B181" s="2" t="s">
-        <v>408</v>
+    <row r="181" spans="1:12" ht="82.5">
+      <c r="A181" s="44"/>
+      <c r="B181" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>340</v>
+        <v>481</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -9469,22 +9831,22 @@
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="1:12" ht="66">
-      <c r="A182" s="29"/>
+    <row r="182" spans="1:12" ht="99">
+      <c r="A182" s="44"/>
       <c r="B182" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
@@ -9493,22 +9855,22 @@
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:12" ht="132">
-      <c r="A183" s="29"/>
+    <row r="183" spans="1:12" ht="66">
+      <c r="A183" s="44"/>
       <c r="B183" s="2" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -9517,22 +9879,22 @@
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:12" ht="99">
-      <c r="A184" s="29"/>
+    <row r="184" spans="1:12" ht="66">
+      <c r="A184" s="44"/>
       <c r="B184" s="2" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>567</v>
+        <v>289</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>568</v>
+        <v>290</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -9541,22 +9903,22 @@
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:12" ht="49.5">
-      <c r="A185" s="30"/>
+    <row r="185" spans="1:12" ht="66">
+      <c r="A185" s="44"/>
       <c r="B185" s="2" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>478</v>
+        <v>292</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>477</v>
+        <v>293</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -9565,28 +9927,100 @@
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
     </row>
+    <row r="186" spans="1:12" ht="132">
+      <c r="A186" s="44"/>
+      <c r="B186" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="1:12" ht="99">
+      <c r="A187" s="44"/>
+      <c r="B187" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:12" ht="49.5">
+      <c r="A188" s="45"/>
+      <c r="B188" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L185">
+  <autoFilter ref="A1:L188">
     <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="A95:A131"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A164:A185"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A21:A68"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A65"/>
+    <mergeCell ref="A98:A134"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="A167:A188"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="A142:A149"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9601,7 +10035,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -9615,206 +10049,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>432</v>
+      <c r="A1" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="16"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="16"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>

--- a/1.TestCase[SW]/TestCase[ST16_CGO3Pro].xlsx
+++ b/1.TestCase[SW]/TestCase[ST16_CGO3Pro].xlsx
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="779">
   <si>
     <t>Passed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3996,13 +3996,149 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.点击从控的GPS校准开关；
+    <t>1.点击从控的SETTING CALIBRATION开关；
 2.点击从控的TASK/CAMERA开关；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.从控的GPS校准开关为灰色并无法打开；
-2.从控的TASK/CAMERA开关变成灰色无法打开；</t>
+    <t>1.从控的SETTING CALIBRATION开关为灰色并无法打开；
+2.从控的TASK/CAMERA开关无法打开；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera Settings_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera Settings_002</t>
+  </si>
+  <si>
+    <t>Camera Settings_003</t>
+  </si>
+  <si>
+    <t>Camera Settings_004</t>
+  </si>
+  <si>
+    <t>Camera Settings_005</t>
+  </si>
+  <si>
+    <t>Camera Settings_006</t>
+  </si>
+  <si>
+    <t>Camera Settings_007</t>
+  </si>
+  <si>
+    <t>Camera Settings_008</t>
+  </si>
+  <si>
+    <t>Camera Settings_009</t>
+  </si>
+  <si>
+    <t>Camera Settings_010</t>
+  </si>
+  <si>
+    <t>Camera Settings_011</t>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本；
+2.遥控器与云台绑定成功；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.切换视频分辨率及对应的帧数后，切换成功，同时Camera Settings左侧实时显示对应视频分辨率及帧数；                           2.选择不同视频分辨率及对应帧数后，拍摄的视频与对应视频分辨率及帧数保持一致；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Audio Switch切至OFF时关闭录音开关，拍摄的视频没有声音；2.Audio Switch切至ON时打开录音开关，拍摄的视频有声音；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在Video Mode，打开Camera Settings-&gt;Video Settings菜单；                                                            2.尝试切换所有视频分辨率及对应帧数；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在Video Mode，点击Camera Settings-&gt;Audio Switch切换按钮；                                                            2.尝试切换Audio Switch开关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在Camera Mode，点击Camera Settings-&gt;Photo Format菜单；                                                            2.尝试切换Photo Format切换按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Photo Format支持jpg、dng、dng+jpg这3种拍照格式，可以自由切换；                                                                              2.拍照时以对应格式生成照片；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Image Format菜单；                                                            2.尝试切换Image Format切换按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Image Format支持Natural、Gorgeous、Raw、Night这4种图像格式，可以自由切换；                                                                              2.切换后Flight Telemetry Data Screen界面根据对应切换风格发生变化；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.遥控器、飞机、云台测试设备各一部，且刷至需测试的软件版本；
+2.遥控器与飞机、云台绑定成功；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Single/Team切换按钮；                                                            2.尝试切换Single/Team切换按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Single/Team默认为Single状态，Single状态支持同时控制飞机及云台，只绑定云台时也可以控制飞机，状态栏显示2.4GHz与5.8GHz的Icon；                                                                                        2.Team状态下只支持控制控制云台，不可以控制飞机，但是可以通过5.8GHz拿到飞机的数传信息，状态栏只显示5.8GHz的Icon；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Reset Camera按钮；                                                            2.尝试对云台相机进行重置操作；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出"Reset to default?"的对话框，单击OK后将对云台相机的所有设置重置为默认值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Video Switch切换按钮；                                                            2.尝试对遥控器执行Video Switch切换操作；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Video Switch默认为ON状态；                                                2.Video Switch切换为OFF后，遥控器断开与云台的连接，同时图传界面回传信息消失，背景只显示云山图；                                 3.重新点击TASK/CAMERA后可重新将Video Switch切换为ON状态，此时遥控器重新连接云台且图传回传恢复正常；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Format SD Card按钮；                                                            2.尝试执行格式化遥控器SD Card操作；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出警告信息弹窗，单击OK后将对遥控器SD Card执行一键格式化操作；                                                                                  2.执行完毕，弹出"Format SD Card Succeed"提示信息;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Histogram Switch切换按钮；                                                            2.尝试打开遥控器直方图开关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Histogram Switch默认为OFF状态；                                                                                  2.Histogram Switch被切换为ON状态后，遥控器图传界面显示直方图小方框，小方框根据场景实时矩阵状发生变化;                       3.再次将Histogram Switch切换为OFF状态，将关闭该小方框；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Metering Mode选择菜单；                                                            2.分别尝试切换不同测光模式；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Metering Mode支持Spot Metering、Center Metering及Average Metering这3种测光模式，默认为Spot Metering；                                                                                  2.选择Spot Metering后单击图传空白区域，将出现十字箭头的方形聚焦框，同时发出Di的一声;                                                   3.选择Center Metering及Average Metering这2种测光模式，点击图传空白区域不会出现步骤2的现象，它们将分别根据环境变化执行中心区域测光及平均图传区域测光；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Photo Mode支持Single、Burst、Timelapse及Panorama这4种拍照模式，默认为Single模式；                                                  2.1.选择Single模式时，按下左侧拍照物理按钮，将执行每次拍照1张照片；                                                                                  2.2.选择Burst模式时，图传区域出现拍照高级设置按钮，其中可以设置Burst Mode的Photo Number(3/5/7)，选择对应拍照张数后，按下左侧拍照物理按钮，将连续拍摄对应张数的照片；          2.3.选择Timelapse模式时，按下左侧拍照物理按钮，图传区域出现“Interval 1s Shooting”提示信息，将执行间隔1秒拍摄1张照片的操作，直到再次按下左侧拍照物理按钮才停止连续拍照；          2.4.选择Panorama模式时，图传区域出现拍照高级设置按钮，其中可以设置Panorama Mode为Single layer 360 degree camera或Double layer 360 degree camera，选择单层360度全景拍摄后按下物理按钮，图传区域出现提示信息"Panoramic Shooting:00/08"，共拍摄8张图片(每隔45度角)，选择双层360度全景拍摄后按下物理按钮，图传区域出现提示信息"Panoramic Shooting:00/18"，共拍摄18张图片(每隔45度角)；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击Camera Settings-&gt;Photo Mode选择菜单；                                                            2.分别尝试切换不同拍照模式，然后按下左侧拍照物理按钮执行拍照操作；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4221,7 +4357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4351,17 +4487,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4377,7 +4502,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4516,15 +4641,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5138,6 +5254,12 @@
     <row r="13" spans="1:5" ht="85.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A1:E1"/>
@@ -5145,12 +5267,6 @@
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5415,16 +5531,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="32" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
@@ -7070,7 +7186,7 @@
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="49.5">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="45" t="s">
         <v>517</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -7096,7 +7212,7 @@
       <c r="L68" s="4"/>
     </row>
     <row r="69" spans="1:12" ht="49.5">
-      <c r="A69" s="48"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="2" t="s">
         <v>521</v>
       </c>
@@ -7120,7 +7236,7 @@
       <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" ht="49.5">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="45" t="s">
         <v>409</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -7146,7 +7262,7 @@
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="82.5">
-      <c r="A71" s="47"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="13" t="s">
         <v>411</v>
       </c>
@@ -7170,7 +7286,7 @@
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="49.5">
-      <c r="A72" s="47"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="13" t="s">
         <v>412</v>
       </c>
@@ -7194,7 +7310,7 @@
       <c r="L72" s="4"/>
     </row>
     <row r="73" spans="1:12" ht="49.5">
-      <c r="A73" s="47"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="13" t="s">
         <v>413</v>
       </c>
@@ -7218,7 +7334,7 @@
       <c r="L73" s="4"/>
     </row>
     <row r="74" spans="1:12" ht="165">
-      <c r="A74" s="47"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="13" t="s">
         <v>414</v>
       </c>
@@ -7242,7 +7358,7 @@
       <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" ht="99">
-      <c r="A75" s="47"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="13" t="s">
         <v>415</v>
       </c>
@@ -7266,7 +7382,7 @@
       <c r="L75" s="4"/>
     </row>
     <row r="76" spans="1:12" ht="116.25" customHeight="1">
-      <c r="A76" s="47"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="13" t="s">
         <v>416</v>
       </c>
@@ -7290,7 +7406,7 @@
       <c r="L76" s="4"/>
     </row>
     <row r="77" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A77" s="47"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="13" t="s">
         <v>424</v>
       </c>
@@ -7314,7 +7430,7 @@
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" ht="133.5" customHeight="1">
-      <c r="A78" s="47"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="13" t="s">
         <v>425</v>
       </c>
@@ -7338,7 +7454,7 @@
       <c r="L78" s="4"/>
     </row>
     <row r="79" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="45" t="s">
         <v>459</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -7364,7 +7480,7 @@
       <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A80" s="47"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="2" t="s">
         <v>460</v>
       </c>
@@ -7388,7 +7504,7 @@
       <c r="L80" s="4"/>
     </row>
     <row r="81" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A81" s="47"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="2" t="s">
         <v>461</v>
       </c>
@@ -7412,7 +7528,7 @@
       <c r="L81" s="4"/>
     </row>
     <row r="82" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="45" t="s">
         <v>462</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -7438,7 +7554,7 @@
       <c r="L82" s="4"/>
     </row>
     <row r="83" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A83" s="47"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="2" t="s">
         <v>464</v>
       </c>
@@ -7462,7 +7578,7 @@
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="198" customHeight="1">
-      <c r="A84" s="47"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="2" t="s">
         <v>465</v>
       </c>
@@ -7486,7 +7602,7 @@
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A85" s="47"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="2" t="s">
         <v>466</v>
       </c>
@@ -7510,7 +7626,7 @@
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="45" t="s">
         <v>477</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -7536,7 +7652,7 @@
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="132" customHeight="1">
-      <c r="A87" s="47"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="2" t="s">
         <v>229</v>
       </c>
@@ -7560,7 +7676,7 @@
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A88" s="47"/>
+      <c r="A88" s="45"/>
       <c r="B88" s="2" t="s">
         <v>478</v>
       </c>
@@ -7584,7 +7700,7 @@
       <c r="L88" s="4"/>
     </row>
     <row r="89" spans="1:12" ht="363" customHeight="1">
-      <c r="A89" s="47"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="2" t="s">
         <v>479</v>
       </c>
@@ -7608,7 +7724,7 @@
       <c r="L89" s="4"/>
     </row>
     <row r="90" spans="1:12" ht="165" customHeight="1">
-      <c r="A90" s="47"/>
+      <c r="A90" s="45"/>
       <c r="B90" s="2" t="s">
         <v>480</v>
       </c>
@@ -7632,7 +7748,7 @@
       <c r="L90" s="4"/>
     </row>
     <row r="91" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="45" t="s">
         <v>493</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -7658,7 +7774,7 @@
       <c r="L91" s="4"/>
     </row>
     <row r="92" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A92" s="47"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="2" t="s">
         <v>495</v>
       </c>
@@ -7682,7 +7798,7 @@
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A93" s="47"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="2" t="s">
         <v>496</v>
       </c>
@@ -7706,7 +7822,7 @@
       <c r="L93" s="4"/>
     </row>
     <row r="94" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A94" s="47"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="2" t="s">
         <v>497</v>
       </c>
@@ -7730,7 +7846,7 @@
       <c r="L94" s="4"/>
     </row>
     <row r="95" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A95" s="47"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="2" t="s">
         <v>498</v>
       </c>
@@ -7754,7 +7870,7 @@
       <c r="L95" s="4"/>
     </row>
     <row r="96" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A96" s="47"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="2" t="s">
         <v>499</v>
       </c>
@@ -7778,7 +7894,7 @@
       <c r="L96" s="4"/>
     </row>
     <row r="97" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A97" s="47"/>
+      <c r="A97" s="45"/>
       <c r="B97" s="2" t="s">
         <v>500</v>
       </c>
@@ -7802,7 +7918,7 @@
       <c r="L97" s="4"/>
     </row>
     <row r="98" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A98" s="47"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="2" t="s">
         <v>501</v>
       </c>
@@ -7826,7 +7942,7 @@
       <c r="L98" s="4"/>
     </row>
     <row r="99" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A99" s="47"/>
+      <c r="A99" s="45"/>
       <c r="B99" s="2" t="s">
         <v>502</v>
       </c>
@@ -7850,7 +7966,7 @@
       <c r="L99" s="4"/>
     </row>
     <row r="100" spans="1:12" ht="132" customHeight="1">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="45" t="s">
         <v>614</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -7876,7 +7992,7 @@
       <c r="L100" s="4"/>
     </row>
     <row r="101" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A101" s="47"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="2" t="s">
         <v>230</v>
       </c>
@@ -7900,7 +8016,7 @@
       <c r="L101" s="4"/>
     </row>
     <row r="102" spans="1:12" ht="132" customHeight="1">
-      <c r="A102" s="47"/>
+      <c r="A102" s="45"/>
       <c r="B102" s="2" t="s">
         <v>231</v>
       </c>
@@ -7924,7 +8040,7 @@
       <c r="L102" s="4"/>
     </row>
     <row r="103" spans="1:12" ht="231" customHeight="1">
-      <c r="A103" s="47"/>
+      <c r="A103" s="45"/>
       <c r="B103" s="2" t="s">
         <v>232</v>
       </c>
@@ -7948,7 +8064,7 @@
       <c r="L103" s="4"/>
     </row>
     <row r="104" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A104" s="47"/>
+      <c r="A104" s="45"/>
       <c r="B104" s="2" t="s">
         <v>233</v>
       </c>
@@ -7972,7 +8088,7 @@
       <c r="L104" s="4"/>
     </row>
     <row r="105" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A105" s="47"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="2" t="s">
         <v>234</v>
       </c>
@@ -7996,7 +8112,7 @@
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="132" customHeight="1">
-      <c r="A106" s="47"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="2" t="s">
         <v>235</v>
       </c>
@@ -8020,7 +8136,7 @@
       <c r="L106" s="4"/>
     </row>
     <row r="107" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A107" s="47"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="2" t="s">
         <v>236</v>
       </c>
@@ -8044,7 +8160,7 @@
       <c r="L107" s="4"/>
     </row>
     <row r="108" spans="1:12" ht="132" customHeight="1">
-      <c r="A108" s="47"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="2" t="s">
         <v>237</v>
       </c>
@@ -8068,7 +8184,7 @@
       <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:12" ht="132" customHeight="1">
-      <c r="A109" s="47"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="2" t="s">
         <v>238</v>
       </c>
@@ -8092,7 +8208,7 @@
       <c r="L109" s="4"/>
     </row>
     <row r="110" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A110" s="47"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="2" t="s">
         <v>239</v>
       </c>
@@ -8116,7 +8232,7 @@
       <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A111" s="47"/>
+      <c r="A111" s="45"/>
       <c r="B111" s="2" t="s">
         <v>240</v>
       </c>
@@ -8140,7 +8256,7 @@
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A112" s="47"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="2" t="s">
         <v>241</v>
       </c>
@@ -8164,7 +8280,7 @@
       <c r="L112" s="4"/>
     </row>
     <row r="113" spans="1:12" ht="132" customHeight="1">
-      <c r="A113" s="47"/>
+      <c r="A113" s="45"/>
       <c r="B113" s="2" t="s">
         <v>242</v>
       </c>
@@ -8188,7 +8304,7 @@
       <c r="L113" s="4"/>
     </row>
     <row r="114" spans="1:12" ht="132" customHeight="1">
-      <c r="A114" s="47"/>
+      <c r="A114" s="45"/>
       <c r="B114" s="2" t="s">
         <v>243</v>
       </c>
@@ -8212,7 +8328,7 @@
       <c r="L114" s="4"/>
     </row>
     <row r="115" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A115" s="47"/>
+      <c r="A115" s="45"/>
       <c r="B115" s="2" t="s">
         <v>244</v>
       </c>
@@ -8236,7 +8352,7 @@
       <c r="L115" s="4"/>
     </row>
     <row r="116" spans="1:12" ht="198" customHeight="1">
-      <c r="A116" s="47"/>
+      <c r="A116" s="45"/>
       <c r="B116" s="2" t="s">
         <v>245</v>
       </c>
@@ -8260,7 +8376,7 @@
       <c r="L116" s="4"/>
     </row>
     <row r="117" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A117" s="47"/>
+      <c r="A117" s="45"/>
       <c r="B117" s="2" t="s">
         <v>246</v>
       </c>
@@ -8284,7 +8400,7 @@
       <c r="L117" s="4"/>
     </row>
     <row r="118" spans="1:12" ht="181.5" customHeight="1">
-      <c r="A118" s="47"/>
+      <c r="A118" s="45"/>
       <c r="B118" s="2" t="s">
         <v>247</v>
       </c>
@@ -8308,7 +8424,7 @@
       <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:12" ht="132" customHeight="1">
-      <c r="A119" s="47"/>
+      <c r="A119" s="45"/>
       <c r="B119" s="2" t="s">
         <v>248</v>
       </c>
@@ -8332,7 +8448,7 @@
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" ht="132" customHeight="1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="45"/>
       <c r="B120" s="2" t="s">
         <v>249</v>
       </c>
@@ -8356,7 +8472,7 @@
       <c r="L120" s="4"/>
     </row>
     <row r="121" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A121" s="47"/>
+      <c r="A121" s="45"/>
       <c r="B121" s="2" t="s">
         <v>250</v>
       </c>
@@ -8380,7 +8496,7 @@
       <c r="L121" s="4"/>
     </row>
     <row r="122" spans="1:12" ht="264" customHeight="1">
-      <c r="A122" s="47"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="2" t="s">
         <v>251</v>
       </c>
@@ -8404,7 +8520,7 @@
       <c r="L122" s="4"/>
     </row>
     <row r="123" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="2" t="s">
         <v>252</v>
       </c>
@@ -8428,7 +8544,7 @@
       <c r="L123" s="4"/>
     </row>
     <row r="124" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A124" s="47"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="2" t="s">
         <v>253</v>
       </c>
@@ -8452,7 +8568,7 @@
       <c r="L124" s="4"/>
     </row>
     <row r="125" spans="1:12" ht="132" customHeight="1">
-      <c r="A125" s="47"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="2" t="s">
         <v>254</v>
       </c>
@@ -8476,7 +8592,7 @@
       <c r="L125" s="4"/>
     </row>
     <row r="126" spans="1:12" ht="132" customHeight="1">
-      <c r="A126" s="47"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="2" t="s">
         <v>255</v>
       </c>
@@ -8500,7 +8616,7 @@
       <c r="L126" s="4"/>
     </row>
     <row r="127" spans="1:12" ht="115.5" customHeight="1">
-      <c r="A127" s="47"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="2" t="s">
         <v>256</v>
       </c>
@@ -8524,7 +8640,7 @@
       <c r="L127" s="4"/>
     </row>
     <row r="128" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A128" s="47"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="2" t="s">
         <v>257</v>
       </c>
@@ -8548,7 +8664,7 @@
       <c r="L128" s="4"/>
     </row>
     <row r="129" spans="1:12" ht="165" customHeight="1">
-      <c r="A129" s="47"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="2" t="s">
         <v>258</v>
       </c>
@@ -8572,7 +8688,7 @@
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A130" s="47"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="2" t="s">
         <v>259</v>
       </c>
@@ -8596,7 +8712,7 @@
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="165" customHeight="1">
-      <c r="A131" s="47"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="2" t="s">
         <v>260</v>
       </c>
@@ -8620,7 +8736,7 @@
       <c r="L131" s="4"/>
     </row>
     <row r="132" spans="1:12" ht="165" customHeight="1">
-      <c r="A132" s="47"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="2" t="s">
         <v>261</v>
       </c>
@@ -8644,7 +8760,7 @@
       <c r="L132" s="4"/>
     </row>
     <row r="133" spans="1:12" ht="148.5" customHeight="1">
-      <c r="A133" s="47"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="2" t="s">
         <v>262</v>
       </c>
@@ -8668,7 +8784,7 @@
       <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" ht="165" customHeight="1">
-      <c r="A134" s="47"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="2" t="s">
         <v>263</v>
       </c>
@@ -8692,7 +8808,7 @@
       <c r="L134" s="4"/>
     </row>
     <row r="135" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A135" s="48"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="2" t="s">
         <v>264</v>
       </c>
@@ -8716,7 +8832,7 @@
       <c r="L135" s="4"/>
     </row>
     <row r="136" spans="1:12" ht="115.5">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="45" t="s">
         <v>620</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -8742,7 +8858,7 @@
       <c r="L136" s="4"/>
     </row>
     <row r="137" spans="1:12" ht="115.5">
-      <c r="A137" s="47"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="2" t="s">
         <v>266</v>
       </c>
@@ -8766,7 +8882,7 @@
       <c r="L137" s="4"/>
     </row>
     <row r="138" spans="1:12" ht="115.5">
-      <c r="A138" s="47"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="2" t="s">
         <v>267</v>
       </c>
@@ -8790,7 +8906,7 @@
       <c r="L138" s="4"/>
     </row>
     <row r="139" spans="1:12" ht="115.5">
-      <c r="A139" s="47"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="2" t="s">
         <v>268</v>
       </c>
@@ -8814,7 +8930,7 @@
       <c r="L139" s="4"/>
     </row>
     <row r="140" spans="1:12" ht="115.5">
-      <c r="A140" s="47"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="2" t="s">
         <v>269</v>
       </c>
@@ -8838,7 +8954,7 @@
       <c r="L140" s="4"/>
     </row>
     <row r="141" spans="1:12" ht="115.5">
-      <c r="A141" s="47"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="2" t="s">
         <v>270</v>
       </c>
@@ -8862,7 +8978,7 @@
       <c r="L141" s="4"/>
     </row>
     <row r="142" spans="1:12" ht="115.5">
-      <c r="A142" s="48"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="2" t="s">
         <v>271</v>
       </c>
@@ -8886,7 +9002,7 @@
       <c r="L142" s="4"/>
     </row>
     <row r="143" spans="1:12" ht="115.5">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="45" t="s">
         <v>634</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -8912,7 +9028,7 @@
       <c r="L143" s="4"/>
     </row>
     <row r="144" spans="1:12" ht="115.5">
-      <c r="A144" s="47"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="2" t="s">
         <v>272</v>
       </c>
@@ -8936,7 +9052,7 @@
       <c r="L144" s="4"/>
     </row>
     <row r="145" spans="1:12" ht="115.5">
-      <c r="A145" s="47"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="2" t="s">
         <v>273</v>
       </c>
@@ -8960,7 +9076,7 @@
       <c r="L145" s="4"/>
     </row>
     <row r="146" spans="1:12" ht="115.5">
-      <c r="A146" s="47"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="2" t="s">
         <v>274</v>
       </c>
@@ -8984,7 +9100,7 @@
       <c r="L146" s="4"/>
     </row>
     <row r="147" spans="1:12" ht="115.5">
-      <c r="A147" s="47"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="2" t="s">
         <v>275</v>
       </c>
@@ -9008,7 +9124,7 @@
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="115.5">
-      <c r="A148" s="47"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="2" t="s">
         <v>276</v>
       </c>
@@ -9032,7 +9148,7 @@
       <c r="L148" s="4"/>
     </row>
     <row r="149" spans="1:12" ht="115.5">
-      <c r="A149" s="47"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="2" t="s">
         <v>277</v>
       </c>
@@ -9056,7 +9172,7 @@
       <c r="L149" s="4"/>
     </row>
     <row r="150" spans="1:12" ht="115.5">
-      <c r="A150" s="48"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="2" t="s">
         <v>278</v>
       </c>
@@ -9080,7 +9196,7 @@
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="132">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="45" t="s">
         <v>651</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -9106,7 +9222,7 @@
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="132">
-      <c r="A152" s="47"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="2" t="s">
         <v>280</v>
       </c>
@@ -9130,7 +9246,7 @@
       <c r="L152" s="4"/>
     </row>
     <row r="153" spans="1:12" ht="132">
-      <c r="A153" s="47"/>
+      <c r="A153" s="45"/>
       <c r="B153" s="2" t="s">
         <v>281</v>
       </c>
@@ -9154,7 +9270,7 @@
       <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" ht="132">
-      <c r="A154" s="47"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="2" t="s">
         <v>282</v>
       </c>
@@ -9178,7 +9294,7 @@
       <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" ht="132">
-      <c r="A155" s="47"/>
+      <c r="A155" s="45"/>
       <c r="B155" s="2" t="s">
         <v>283</v>
       </c>
@@ -9202,7 +9318,7 @@
       <c r="L155" s="4"/>
     </row>
     <row r="156" spans="1:12" ht="132">
-      <c r="A156" s="48"/>
+      <c r="A156" s="45"/>
       <c r="B156" s="2" t="s">
         <v>650</v>
       </c>
@@ -9226,7 +9342,7 @@
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="115.5">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="45" t="s">
         <v>666</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -9252,7 +9368,7 @@
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="115.5">
-      <c r="A158" s="47"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="2" t="s">
         <v>285</v>
       </c>
@@ -9276,7 +9392,7 @@
       <c r="L158" s="4"/>
     </row>
     <row r="159" spans="1:12" ht="115.5">
-      <c r="A159" s="47"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="2" t="s">
         <v>286</v>
       </c>
@@ -9300,7 +9416,7 @@
       <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" ht="115.5">
-      <c r="A160" s="47"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="2" t="s">
         <v>287</v>
       </c>
@@ -9324,7 +9440,7 @@
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="148.5">
-      <c r="A161" s="48"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="2" t="s">
         <v>288</v>
       </c>
@@ -9348,7 +9464,7 @@
       <c r="L161" s="4"/>
     </row>
     <row r="162" spans="1:12" ht="66">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="45" t="s">
         <v>679</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -9374,7 +9490,7 @@
       <c r="L162" s="4"/>
     </row>
     <row r="163" spans="1:12" ht="66">
-      <c r="A163" s="47"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="2" t="s">
         <v>290</v>
       </c>
@@ -9398,7 +9514,7 @@
       <c r="L163" s="4"/>
     </row>
     <row r="164" spans="1:12" ht="66">
-      <c r="A164" s="47"/>
+      <c r="A164" s="45"/>
       <c r="B164" s="2" t="s">
         <v>291</v>
       </c>
@@ -9422,7 +9538,7 @@
       <c r="L164" s="4"/>
     </row>
     <row r="165" spans="1:12" ht="66">
-      <c r="A165" s="47"/>
+      <c r="A165" s="45"/>
       <c r="B165" s="2" t="s">
         <v>292</v>
       </c>
@@ -9446,7 +9562,7 @@
       <c r="L165" s="4"/>
     </row>
     <row r="166" spans="1:12" ht="82.5">
-      <c r="A166" s="47"/>
+      <c r="A166" s="45"/>
       <c r="B166" s="2" t="s">
         <v>293</v>
       </c>
@@ -9470,7 +9586,7 @@
       <c r="L166" s="4"/>
     </row>
     <row r="167" spans="1:12" ht="82.5">
-      <c r="A167" s="48"/>
+      <c r="A167" s="45"/>
       <c r="B167" s="2" t="s">
         <v>294</v>
       </c>
@@ -9494,7 +9610,7 @@
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" ht="99">
-      <c r="A168" s="46" t="s">
+      <c r="A168" s="45" t="s">
         <v>694</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -9520,7 +9636,7 @@
       <c r="L168" s="4"/>
     </row>
     <row r="169" spans="1:12" ht="148.5">
-      <c r="A169" s="47"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="2" t="s">
         <v>296</v>
       </c>
@@ -9544,7 +9660,7 @@
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" ht="99">
-      <c r="A170" s="47"/>
+      <c r="A170" s="45"/>
       <c r="B170" s="2" t="s">
         <v>297</v>
       </c>
@@ -9568,7 +9684,7 @@
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="148.5">
-      <c r="A171" s="47"/>
+      <c r="A171" s="45"/>
       <c r="B171" s="2" t="s">
         <v>298</v>
       </c>
@@ -9592,7 +9708,7 @@
       <c r="L171" s="4"/>
     </row>
     <row r="172" spans="1:12" ht="82.5">
-      <c r="A172" s="47"/>
+      <c r="A172" s="45"/>
       <c r="B172" s="2" t="s">
         <v>299</v>
       </c>
@@ -9616,7 +9732,7 @@
       <c r="L172" s="4"/>
     </row>
     <row r="173" spans="1:12" ht="66">
-      <c r="A173" s="47"/>
+      <c r="A173" s="45"/>
       <c r="B173" s="13" t="s">
         <v>300</v>
       </c>
@@ -9640,7 +9756,7 @@
       <c r="L173" s="4"/>
     </row>
     <row r="174" spans="1:12" ht="66">
-      <c r="A174" s="47"/>
+      <c r="A174" s="45"/>
       <c r="B174" s="13" t="s">
         <v>301</v>
       </c>
@@ -9664,7 +9780,7 @@
       <c r="L174" s="4"/>
     </row>
     <row r="175" spans="1:12" ht="66">
-      <c r="A175" s="47"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="13" t="s">
         <v>302</v>
       </c>
@@ -9688,7 +9804,7 @@
       <c r="L175" s="4"/>
     </row>
     <row r="176" spans="1:12" ht="99">
-      <c r="A176" s="47"/>
+      <c r="A176" s="45"/>
       <c r="B176" s="13" t="s">
         <v>303</v>
       </c>
@@ -9712,7 +9828,7 @@
       <c r="L176" s="4"/>
     </row>
     <row r="177" spans="1:12" ht="66">
-      <c r="A177" s="47"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="13" t="s">
         <v>304</v>
       </c>
@@ -9736,7 +9852,7 @@
       <c r="L177" s="4"/>
     </row>
     <row r="178" spans="1:12" ht="66">
-      <c r="A178" s="47"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="13" t="s">
         <v>305</v>
       </c>
@@ -9760,7 +9876,7 @@
       <c r="L178" s="4"/>
     </row>
     <row r="179" spans="1:12" ht="66">
-      <c r="A179" s="47"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="13" t="s">
         <v>306</v>
       </c>
@@ -9784,7 +9900,7 @@
       <c r="L179" s="4"/>
     </row>
     <row r="180" spans="1:12" ht="82.5">
-      <c r="A180" s="47"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="13" t="s">
         <v>307</v>
       </c>
@@ -9808,7 +9924,7 @@
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="82.5">
-      <c r="A181" s="47"/>
+      <c r="A181" s="45"/>
       <c r="B181" s="13" t="s">
         <v>308</v>
       </c>
@@ -9832,7 +9948,7 @@
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="82.5">
-      <c r="A182" s="47"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="13" t="s">
         <v>309</v>
       </c>
@@ -9856,7 +9972,7 @@
       <c r="L182" s="4"/>
     </row>
     <row r="183" spans="1:12" ht="115.5">
-      <c r="A183" s="47"/>
+      <c r="A183" s="45"/>
       <c r="B183" s="2" t="s">
         <v>310</v>
       </c>
@@ -9880,7 +9996,7 @@
       <c r="L183" s="4"/>
     </row>
     <row r="184" spans="1:12" ht="66">
-      <c r="A184" s="47"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="2" t="s">
         <v>311</v>
       </c>
@@ -9904,7 +10020,7 @@
       <c r="L184" s="4"/>
     </row>
     <row r="185" spans="1:12" ht="66">
-      <c r="A185" s="47"/>
+      <c r="A185" s="45"/>
       <c r="B185" s="2" t="s">
         <v>312</v>
       </c>
@@ -9928,7 +10044,7 @@
       <c r="L185" s="4"/>
     </row>
     <row r="186" spans="1:12" ht="132">
-      <c r="A186" s="47"/>
+      <c r="A186" s="45"/>
       <c r="B186" s="2" t="s">
         <v>313</v>
       </c>
@@ -9952,7 +10068,7 @@
       <c r="L186" s="4"/>
     </row>
     <row r="187" spans="1:12" ht="99">
-      <c r="A187" s="47"/>
+      <c r="A187" s="45"/>
       <c r="B187" s="2" t="s">
         <v>314</v>
       </c>
@@ -9976,7 +10092,7 @@
       <c r="L187" s="4"/>
     </row>
     <row r="188" spans="1:12" ht="49.5">
-      <c r="A188" s="48"/>
+      <c r="A188" s="45"/>
       <c r="B188" s="2" t="s">
         <v>315</v>
       </c>
@@ -9999,29 +10115,295 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
     </row>
+    <row r="189" spans="1:12" ht="66">
+      <c r="A189" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D189" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:12" ht="49.5">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D190" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="1:12" ht="49.5">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D191" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:12" ht="66">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="1:12" ht="99">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D193" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" ht="49.5">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D194" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+    </row>
+    <row r="195" spans="1:12" ht="82.5">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D195" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="1:12" ht="49.5">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D196" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" ht="82.5">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D197" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" ht="115.5">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="1:12" ht="297">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D199" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L188">
     <filterColumn colId="3"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A22:A67"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="A100:A135"/>
     <mergeCell ref="A168:A188"/>
     <mergeCell ref="A136:A142"/>
     <mergeCell ref="A143:A150"/>
     <mergeCell ref="A151:A156"/>
     <mergeCell ref="A157:A161"/>
     <mergeCell ref="A162:A167"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A100:A135"/>
-    <mergeCell ref="A22:A67"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="A68:A69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
